--- a/planning/Charts/BurndownChart.xlsx
+++ b/planning/Charts/BurndownChart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\Android\FlatsharePlanner\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\Android\FlatsharePlanner\planning\Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,19 +158,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1564,46 +1564,46 @@
                   <c:v>43089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43090</c:v>
+                  <c:v>43096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43091</c:v>
+                  <c:v>43103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43092</c:v>
+                  <c:v>43104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43093</c:v>
+                  <c:v>43105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43094</c:v>
+                  <c:v>43106</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43095</c:v>
+                  <c:v>43107</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43096</c:v>
+                  <c:v>43108</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43097</c:v>
+                  <c:v>43109</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43098</c:v>
+                  <c:v>43110</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43099</c:v>
+                  <c:v>43111</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43100</c:v>
+                  <c:v>43112</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43101</c:v>
+                  <c:v>43113</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43102</c:v>
+                  <c:v>43114</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43103</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,34 +1630,34 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1723,46 +1723,46 @@
                   <c:v>43089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43090</c:v>
+                  <c:v>43096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43091</c:v>
+                  <c:v>43103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43092</c:v>
+                  <c:v>43104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43093</c:v>
+                  <c:v>43105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43094</c:v>
+                  <c:v>43106</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43095</c:v>
+                  <c:v>43107</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43096</c:v>
+                  <c:v>43108</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43097</c:v>
+                  <c:v>43109</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43098</c:v>
+                  <c:v>43110</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43099</c:v>
+                  <c:v>43111</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43100</c:v>
+                  <c:v>43112</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43101</c:v>
+                  <c:v>43113</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43102</c:v>
+                  <c:v>43114</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43103</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1887,9 +1887,11 @@
         </c:txPr>
         <c:crossAx val="48860544"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="2"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="48860544"/>
@@ -3265,15 +3267,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>24766</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>344806</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3698,146 +3700,146 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>43061</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
         <v>43062</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>43063</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
         <v>43064</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
         <v>43065</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
         <v>43066</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
         <v>43067</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
         <v>43068</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
         <v>43069</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7">
         <v>43070</v>
       </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5">
+      <c r="U5" s="7"/>
+      <c r="V5" s="7">
         <v>43071</v>
       </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5">
+      <c r="W5" s="7"/>
+      <c r="X5" s="7">
         <v>43072</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5">
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7">
         <v>43073</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5">
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7">
         <v>43074</v>
       </c>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5">
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7">
         <v>43075</v>
       </c>
-      <c r="AE5" s="5"/>
+      <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <f>SUM(C11:C45)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
         <f>SUM(E11:E45)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
         <f>SUM(G11:G45)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
         <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
         <f>SUM(K11:K45)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
         <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8">
         <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
         <f>SUM(Q11:Q45)</f>
         <v>10</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
         <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
         <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4">
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
         <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4">
+      <c r="W6" s="8"/>
+      <c r="X6" s="8">
         <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4">
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8">
         <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8">
         <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
         <v>1</v>
       </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4">
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8">
         <f>SUM(AE11:AE45)</f>
         <v>21</v>
       </c>
-      <c r="AE6" s="4"/>
+      <c r="AE6" s="8"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -3849,7 +3851,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3944,7 +3946,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="3">
         <v>12</v>
       </c>
@@ -3987,7 +3989,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="3">
         <v>13</v>
       </c>
@@ -4019,7 +4021,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
@@ -4047,7 +4049,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
@@ -4075,7 +4077,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
@@ -4097,7 +4099,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
@@ -4120,7 +4122,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
@@ -4143,7 +4145,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
@@ -4161,7 +4163,7 @@
       <c r="AD18" s="3"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="5"/>
       <c r="D19" s="3"/>
       <c r="F19" s="3"/>
       <c r="H19" s="3"/>
@@ -4178,7 +4180,7 @@
       <c r="AD19" s="3"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="5"/>
       <c r="D20" s="3"/>
       <c r="F20" s="3"/>
       <c r="H20" s="3"/>
@@ -4195,7 +4197,7 @@
       <c r="AD20" s="3"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
@@ -4213,7 +4215,7 @@
       <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
@@ -4231,7 +4233,7 @@
       <c r="AD22" s="3"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
@@ -4249,7 +4251,7 @@
       <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
@@ -4267,7 +4269,7 @@
       <c r="AD24" s="3"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
@@ -4285,7 +4287,7 @@
       <c r="AD25" s="3"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
@@ -4303,7 +4305,7 @@
       <c r="AD26" s="3"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="D27" s="3"/>
       <c r="F27" s="3"/>
@@ -4321,7 +4323,7 @@
       <c r="AD27" s="3"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="D28" s="3"/>
       <c r="F28" s="3"/>
@@ -4339,7 +4341,7 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="D29" s="3"/>
       <c r="F29" s="3"/>
@@ -4357,7 +4359,7 @@
       <c r="AD29" s="3"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
@@ -4375,7 +4377,7 @@
       <c r="AD30" s="3"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
@@ -4393,7 +4395,7 @@
       <c r="AD31" s="3"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
@@ -4411,7 +4413,7 @@
       <c r="AD32" s="3"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="D33" s="3"/>
       <c r="F33" s="3"/>
@@ -4429,7 +4431,7 @@
       <c r="AD33" s="3"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="D34" s="3"/>
       <c r="F34" s="3"/>
@@ -4447,7 +4449,7 @@
       <c r="AD34" s="3"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="D35" s="3"/>
       <c r="F35" s="3"/>
@@ -4465,7 +4467,7 @@
       <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
@@ -4483,7 +4485,7 @@
       <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="D37" s="3"/>
       <c r="F37" s="3"/>
@@ -4501,7 +4503,7 @@
       <c r="AD37" s="3"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="D38" s="3"/>
       <c r="F38" s="3"/>
@@ -4519,7 +4521,7 @@
       <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="3"/>
       <c r="D39" s="3"/>
       <c r="F39" s="3"/>
@@ -4537,7 +4539,7 @@
       <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
       <c r="F40" s="3"/>
@@ -4555,7 +4557,7 @@
       <c r="AD40" s="3"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="3"/>
       <c r="D41" s="3"/>
       <c r="F41" s="3"/>
@@ -4573,7 +4575,7 @@
       <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="3"/>
       <c r="D42" s="3"/>
       <c r="F42" s="3"/>
@@ -4591,7 +4593,7 @@
       <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="3"/>
       <c r="D43" s="3"/>
       <c r="F43" s="3"/>
@@ -4609,7 +4611,7 @@
       <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="D44" s="3"/>
       <c r="F44" s="3"/>
@@ -4627,7 +4629,7 @@
       <c r="AD44" s="3"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="D45" s="3"/>
       <c r="F45" s="3"/>
@@ -4645,66 +4647,66 @@
       <c r="AD45" s="3"/>
     </row>
     <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5">
+      <c r="B46" s="7">
         <v>43061</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7">
         <v>43062</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7">
         <v>43063</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7">
         <v>43064</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5">
+      <c r="I46" s="7"/>
+      <c r="J46" s="7">
         <v>43065</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
         <v>43066</v>
       </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5">
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
         <v>43067</v>
       </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5">
+      <c r="O46" s="7"/>
+      <c r="P46" s="7">
         <v>43068</v>
       </c>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5">
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7">
         <v>43069</v>
       </c>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5">
+      <c r="S46" s="7"/>
+      <c r="T46" s="7">
         <v>43070</v>
       </c>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5">
+      <c r="U46" s="7"/>
+      <c r="V46" s="7">
         <v>43071</v>
       </c>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5">
+      <c r="W46" s="7"/>
+      <c r="X46" s="7">
         <v>43072</v>
       </c>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5">
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7">
         <v>43073</v>
       </c>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5">
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7">
         <v>43074</v>
       </c>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5">
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7">
         <v>43075</v>
       </c>
-      <c r="AE46" s="5"/>
+      <c r="AE46" s="7"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
@@ -4854,6 +4856,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="A10:A45"/>
     <mergeCell ref="T48:U48"/>
     <mergeCell ref="T47:U47"/>
@@ -4870,66 +4932,6 @@
     <mergeCell ref="AD48:AE48"/>
     <mergeCell ref="AB48:AC48"/>
     <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
@@ -4994,146 +4996,146 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>43075</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
         <v>43076</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>43077</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
         <v>43078</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
         <v>43079</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
         <v>43080</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
         <v>43081</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
         <v>43082</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
         <v>43083</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7">
         <v>43084</v>
       </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5">
+      <c r="U5" s="7"/>
+      <c r="V5" s="7">
         <v>43085</v>
       </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5">
+      <c r="W5" s="7"/>
+      <c r="X5" s="7">
         <v>43086</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5">
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7">
         <v>43087</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5">
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7">
         <v>43088</v>
       </c>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5">
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7">
         <v>43089</v>
       </c>
-      <c r="AE5" s="5"/>
+      <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <f>SUM(C11:C45)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
         <f>SUM(E11:E45)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
         <f>SUM(G11:G45)</f>
         <v>2</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
         <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
         <f>SUM(K11:K45)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
         <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8">
         <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
         <f>SUM(Q11:Q45)</f>
         <v>14</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
         <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
         <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4">
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
         <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4">
+      <c r="W6" s="8"/>
+      <c r="X6" s="8">
         <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4">
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8">
         <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8">
         <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4">
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8">
         <f>SUM(AE12:AE45)</f>
         <v>12</v>
       </c>
-      <c r="AE6" s="4"/>
+      <c r="AE6" s="8"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -5145,7 +5147,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5240,7 +5242,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3">
@@ -5278,7 +5280,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
@@ -5306,7 +5308,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
@@ -5329,7 +5331,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
@@ -5352,7 +5354,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
@@ -5374,7 +5376,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
@@ -5397,7 +5399,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
@@ -5415,7 +5417,7 @@
       <c r="AD17" s="3"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
@@ -5433,7 +5435,7 @@
       <c r="AD18" s="3"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="F19" s="3"/>
@@ -5451,7 +5453,7 @@
       <c r="AD19" s="3"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="F20" s="3"/>
@@ -5469,7 +5471,7 @@
       <c r="AD20" s="3"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
@@ -5487,7 +5489,7 @@
       <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
@@ -5505,7 +5507,7 @@
       <c r="AD22" s="3"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
@@ -5523,7 +5525,7 @@
       <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
@@ -5541,7 +5543,7 @@
       <c r="AD24" s="3"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
@@ -5559,7 +5561,7 @@
       <c r="AD25" s="3"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
@@ -5577,7 +5579,7 @@
       <c r="AD26" s="3"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="D27" s="3"/>
       <c r="F27" s="3"/>
@@ -5595,7 +5597,7 @@
       <c r="AD27" s="3"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="D28" s="3"/>
       <c r="F28" s="3"/>
@@ -5613,7 +5615,7 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="D29" s="3"/>
       <c r="F29" s="3"/>
@@ -5631,7 +5633,7 @@
       <c r="AD29" s="3"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
@@ -5649,7 +5651,7 @@
       <c r="AD30" s="3"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
@@ -5667,7 +5669,7 @@
       <c r="AD31" s="3"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
@@ -5685,7 +5687,7 @@
       <c r="AD32" s="3"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="D33" s="3"/>
       <c r="F33" s="3"/>
@@ -5703,7 +5705,7 @@
       <c r="AD33" s="3"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="D34" s="3"/>
       <c r="F34" s="3"/>
@@ -5721,7 +5723,7 @@
       <c r="AD34" s="3"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="D35" s="3"/>
       <c r="F35" s="3"/>
@@ -5739,7 +5741,7 @@
       <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
@@ -5757,7 +5759,7 @@
       <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="D37" s="3"/>
       <c r="F37" s="3"/>
@@ -5775,7 +5777,7 @@
       <c r="AD37" s="3"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="D38" s="3"/>
       <c r="F38" s="3"/>
@@ -5793,7 +5795,7 @@
       <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="3"/>
       <c r="D39" s="3"/>
       <c r="F39" s="3"/>
@@ -5811,7 +5813,7 @@
       <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
       <c r="F40" s="3"/>
@@ -5829,7 +5831,7 @@
       <c r="AD40" s="3"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="3"/>
       <c r="D41" s="3"/>
       <c r="F41" s="3"/>
@@ -5837,7 +5839,7 @@
       <c r="J41" s="3"/>
       <c r="L41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="P41" s="8"/>
+      <c r="P41" s="4"/>
       <c r="R41" s="3"/>
       <c r="T41" s="3"/>
       <c r="V41" s="3"/>
@@ -5847,7 +5849,7 @@
       <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="3"/>
       <c r="D42" s="3"/>
       <c r="F42" s="3"/>
@@ -5865,7 +5867,7 @@
       <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="3"/>
       <c r="D43" s="3"/>
       <c r="F43" s="3"/>
@@ -5883,7 +5885,7 @@
       <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="D44" s="3"/>
       <c r="F44" s="3"/>
@@ -5901,7 +5903,7 @@
       <c r="AD44" s="3"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="D45" s="3"/>
       <c r="F45" s="3"/>
@@ -5919,81 +5921,81 @@
       <c r="AD45" s="3"/>
     </row>
     <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5">
+      <c r="B46" s="7">
         <f>B5</f>
         <v>43075</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7">
         <f t="shared" ref="D46" si="9">D5</f>
         <v>43076</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7">
         <f t="shared" ref="F46" si="10">F5</f>
         <v>43077</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7">
         <f t="shared" ref="H46" si="11">H5</f>
         <v>43078</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5">
+      <c r="I46" s="7"/>
+      <c r="J46" s="7">
         <f t="shared" ref="J46" si="12">J5</f>
         <v>43079</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
         <f t="shared" ref="L46" si="13">L5</f>
         <v>43080</v>
       </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5">
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
         <f t="shared" ref="N46" si="14">N5</f>
         <v>43081</v>
       </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5">
+      <c r="O46" s="7"/>
+      <c r="P46" s="7">
         <f t="shared" ref="P46" si="15">P5</f>
         <v>43082</v>
       </c>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5">
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7">
         <f t="shared" ref="R46" si="16">R5</f>
         <v>43083</v>
       </c>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5">
+      <c r="S46" s="7"/>
+      <c r="T46" s="7">
         <f t="shared" ref="T46" si="17">T5</f>
         <v>43084</v>
       </c>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5">
+      <c r="U46" s="7"/>
+      <c r="V46" s="7">
         <f t="shared" ref="V46" si="18">V5</f>
         <v>43085</v>
       </c>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5">
+      <c r="W46" s="7"/>
+      <c r="X46" s="7">
         <f t="shared" ref="X46" si="19">X5</f>
         <v>43086</v>
       </c>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5">
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7">
         <f t="shared" ref="Z46" si="20">Z5</f>
         <v>43087</v>
       </c>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5">
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7">
         <f t="shared" ref="AB46" si="21">AB5</f>
         <v>43088</v>
       </c>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5">
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7">
         <f>AD5</f>
         <v>43089</v>
       </c>
-      <c r="AE46" s="5"/>
+      <c r="AE46" s="7"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
@@ -6138,6 +6140,1263 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6">
         <v>0.9</v>
+      </c>
+      <c r="AE48" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A10:A45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621633D-211F-40C8-9BEF-6BCC5D353A42}">
+  <dimension ref="A1:AE48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>43089</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>43096</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>43103</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <v>43104</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
+        <v>43105</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
+        <v>43106</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
+        <v>43107</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
+        <v>43108</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
+        <v>43109</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7">
+        <v>43110</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7">
+        <v>43111</v>
+      </c>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7">
+        <v>43112</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7">
+        <v>43113</v>
+      </c>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7">
+        <v>43114</v>
+      </c>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7">
+        <v>43115</v>
+      </c>
+      <c r="AE5" s="7"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <f>SUM(C11:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <f>SUM(E11:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <f>SUM(G11:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <f>SUM(K11:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
+        <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8">
+        <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
+        <f>SUM(Q11:Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
+        <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
+        <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
+        <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8">
+        <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8">
+        <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8">
+        <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8">
+        <f t="shared" ref="AD6" si="9">SUM(AE11:AE45)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>B3-(SUM(B6:AD6))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="3">
+        <v>55</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AD12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AD14" s="3"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AD15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AD18" s="3"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AD30" s="3"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AD31" s="3"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AD34" s="3"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AD35" s="3"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AD36" s="3"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AD37" s="3"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AD38" s="3"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AD41" s="3"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AD42" s="3"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AD43" s="3"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AD44" s="3"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AD45" s="3"/>
+    </row>
+    <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="7">
+        <f>B5</f>
+        <v>43089</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7">
+        <f t="shared" ref="D46" si="10">D5</f>
+        <v>43096</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7">
+        <f t="shared" ref="F46" si="11">F5</f>
+        <v>43103</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7">
+        <f t="shared" ref="H46" si="12">H5</f>
+        <v>43104</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7">
+        <f t="shared" ref="J46" si="13">J5</f>
+        <v>43105</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
+        <f t="shared" ref="L46" si="14">L5</f>
+        <v>43106</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
+        <f t="shared" ref="N46" si="15">N5</f>
+        <v>43107</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7">
+        <f t="shared" ref="P46" si="16">P5</f>
+        <v>43108</v>
+      </c>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7">
+        <f t="shared" ref="R46" si="17">R5</f>
+        <v>43109</v>
+      </c>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7">
+        <f t="shared" ref="T46" si="18">T5</f>
+        <v>43110</v>
+      </c>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7">
+        <f t="shared" ref="V46" si="19">V5</f>
+        <v>43111</v>
+      </c>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7">
+        <f t="shared" ref="X46" si="20">X5</f>
+        <v>43112</v>
+      </c>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7">
+        <f t="shared" ref="Z46" si="21">Z5</f>
+        <v>43113</v>
+      </c>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7">
+        <f t="shared" ref="AB46" si="22">AB5</f>
+        <v>43114</v>
+      </c>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7">
+        <f>AD5</f>
+        <v>43115</v>
+      </c>
+      <c r="AE46" s="7"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="6">
+        <f>$B$3-B6</f>
+        <v>34</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <f>B47-D6</f>
+        <v>34</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <f>D47-F6</f>
+        <v>34</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6">
+        <f>F47-H6</f>
+        <v>34</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6">
+        <f>H47-J6</f>
+        <v>34</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6">
+        <f>J47-L6</f>
+        <v>26</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6">
+        <f>L47-N6</f>
+        <v>26</v>
+      </c>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6">
+        <f>N47-P6</f>
+        <v>26</v>
+      </c>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6">
+        <f>P47-R6</f>
+        <v>26</v>
+      </c>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6">
+        <f>R47-T6</f>
+        <v>26</v>
+      </c>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6">
+        <f>T47-V6</f>
+        <v>26</v>
+      </c>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6">
+        <f>V47-X6</f>
+        <v>26</v>
+      </c>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6">
+        <f>X47-Z6</f>
+        <v>26</v>
+      </c>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6">
+        <f>Z47-AB6</f>
+        <v>26</v>
+      </c>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6">
+        <f>AB47-AD6</f>
+        <v>26</v>
+      </c>
+      <c r="AE47" s="6"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6">
+        <f>B3</f>
+        <v>34</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
+        <f>B48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>31.73</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
+        <f t="shared" ref="F48" si="23">D48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>29.46</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
+        <f t="shared" ref="H48" si="24">F48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>27.19</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6">
+        <f t="shared" ref="J48" si="25">H48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>24.92</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6">
+        <f t="shared" ref="L48" si="26">J48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>22.650000000000002</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6">
+        <f t="shared" ref="N48" si="27">L48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>20.380000000000003</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6">
+        <f t="shared" ref="P48" si="28">N48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>18.110000000000003</v>
+      </c>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6">
+        <f t="shared" ref="R48" si="29">P48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>15.840000000000003</v>
+      </c>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6">
+        <f t="shared" ref="T48" si="30">R48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>13.570000000000004</v>
+      </c>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6">
+        <f t="shared" ref="V48" si="31">T48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>11.300000000000004</v>
+      </c>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6">
+        <f t="shared" ref="X48" si="32">V48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>9.0300000000000047</v>
+      </c>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6">
+        <f t="shared" ref="Z48" si="33">X48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>6.7600000000000051</v>
+      </c>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6">
+        <f t="shared" ref="AB48" si="34">Z48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>4.4900000000000055</v>
+      </c>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6">
+        <f t="shared" ref="AD48" si="35">AB48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>2.2200000000000055</v>
       </c>
       <c r="AE48" s="6"/>
     </row>
@@ -6225,1258 +7484,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621633D-211F-40C8-9BEF-6BCC5D353A42}">
-  <dimension ref="A1:AE48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>43089</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
-        <v>43090</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>43091</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>43092</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
-        <v>43093</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5">
-        <v>43094</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5">
-        <v>43095</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5">
-        <v>43096</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5">
-        <v>43097</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5">
-        <v>43098</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5">
-        <v>43099</v>
-      </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5">
-        <v>43100</v>
-      </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5">
-        <v>43101</v>
-      </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5">
-        <v>43102</v>
-      </c>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5">
-        <v>43103</v>
-      </c>
-      <c r="AE5" s="5"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <f>SUM(C11:C45)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <f>SUM(E11:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <f>SUM(G11:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <f>SUM(K11:K45)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
-        <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4">
-        <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4">
-        <f>SUM(Q11:Q45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4">
-        <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4">
-        <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4">
-        <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4">
-        <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4">
-        <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4">
-        <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4">
-        <f t="shared" ref="AD6" si="9">SUM(AE11:AE45)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f>B3-(SUM(B6:AD6))</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AD12" s="3"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AD13" s="3"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AD14" s="3"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AD15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AD17" s="3"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AD18" s="3"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AD20" s="3"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AD22" s="3"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AD23" s="3"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AD24" s="3"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AD25" s="3"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AD26" s="3"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AD27" s="3"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AD28" s="3"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AD29" s="3"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AD30" s="3"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AD31" s="3"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AD32" s="3"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AD33" s="3"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AD34" s="3"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AD35" s="3"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AD36" s="3"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AD37" s="3"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AD38" s="3"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AD41" s="3"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AD42" s="3"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AD43" s="3"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AD44" s="3"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AD45" s="3"/>
-    </row>
-    <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5">
-        <f>B5</f>
-        <v>43089</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5">
-        <f t="shared" ref="D46" si="10">D5</f>
-        <v>43090</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
-        <f t="shared" ref="F46" si="11">F5</f>
-        <v>43091</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5">
-        <f t="shared" ref="H46" si="12">H5</f>
-        <v>43092</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5">
-        <f t="shared" ref="J46" si="13">J5</f>
-        <v>43093</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5">
-        <f t="shared" ref="L46" si="14">L5</f>
-        <v>43094</v>
-      </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5">
-        <f t="shared" ref="N46" si="15">N5</f>
-        <v>43095</v>
-      </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5">
-        <f t="shared" ref="P46" si="16">P5</f>
-        <v>43096</v>
-      </c>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5">
-        <f t="shared" ref="R46" si="17">R5</f>
-        <v>43097</v>
-      </c>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5">
-        <f t="shared" ref="T46" si="18">T5</f>
-        <v>43098</v>
-      </c>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5">
-        <f t="shared" ref="V46" si="19">V5</f>
-        <v>43099</v>
-      </c>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5">
-        <f t="shared" ref="X46" si="20">X5</f>
-        <v>43100</v>
-      </c>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5">
-        <f t="shared" ref="Z46" si="21">Z5</f>
-        <v>43101</v>
-      </c>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5">
-        <f t="shared" ref="AB46" si="22">AB5</f>
-        <v>43102</v>
-      </c>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5">
-        <f>AD5</f>
-        <v>43103</v>
-      </c>
-      <c r="AE46" s="5"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="6">
-        <f>$B$3-B6</f>
-        <v>34</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6">
-        <f>B47-D6</f>
-        <v>34</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
-        <f>D47-F6</f>
-        <v>34</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6">
-        <f>F47-H6</f>
-        <v>34</v>
-      </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6">
-        <f>H47-J6</f>
-        <v>34</v>
-      </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6">
-        <f>J47-L6</f>
-        <v>34</v>
-      </c>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6">
-        <f>L47-N6</f>
-        <v>34</v>
-      </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6">
-        <f>N47-P6</f>
-        <v>34</v>
-      </c>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6">
-        <f>P47-R6</f>
-        <v>34</v>
-      </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6">
-        <f>R47-T6</f>
-        <v>34</v>
-      </c>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6">
-        <f>T47-V6</f>
-        <v>34</v>
-      </c>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6">
-        <f>V47-X6</f>
-        <v>34</v>
-      </c>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6">
-        <f>X47-Z6</f>
-        <v>34</v>
-      </c>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6">
-        <f>Z47-AB6</f>
-        <v>34</v>
-      </c>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6">
-        <f>AB47-AD6</f>
-        <v>34</v>
-      </c>
-      <c r="AE47" s="6"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="6">
-        <f>B3</f>
-        <v>34</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6">
-        <f>B48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>31.73</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
-        <f t="shared" ref="F48" si="23">D48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>29.46</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6">
-        <f t="shared" ref="H48" si="24">F48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>27.19</v>
-      </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6">
-        <f t="shared" ref="J48" si="25">H48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>24.92</v>
-      </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6">
-        <f t="shared" ref="L48" si="26">J48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>22.650000000000002</v>
-      </c>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6">
-        <f t="shared" ref="N48" si="27">L48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>20.380000000000003</v>
-      </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6">
-        <f t="shared" ref="P48" si="28">N48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>18.110000000000003</v>
-      </c>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6">
-        <f t="shared" ref="R48" si="29">P48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>15.840000000000003</v>
-      </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6">
-        <f t="shared" ref="T48" si="30">R48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>13.570000000000004</v>
-      </c>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6">
-        <f t="shared" ref="V48" si="31">T48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>11.300000000000004</v>
-      </c>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6">
-        <f t="shared" ref="X48" si="32">V48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>9.0300000000000047</v>
-      </c>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6">
-        <f t="shared" ref="Z48" si="33">X48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>6.7600000000000051</v>
-      </c>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6">
-        <f t="shared" ref="AB48" si="34">Z48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>4.4900000000000055</v>
-      </c>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6">
-        <f t="shared" ref="AD48" si="35">AB48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>2.2200000000000055</v>
-      </c>
-      <c r="AE48" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A10:A45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE48"/>
@@ -7534,146 +7541,146 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>43061</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
         <v>43062</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>43063</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
         <v>43064</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
         <v>43065</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
         <v>43066</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
         <v>43067</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
         <v>43068</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
         <v>43069</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7">
         <v>43070</v>
       </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5">
+      <c r="U5" s="7"/>
+      <c r="V5" s="7">
         <v>43071</v>
       </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5">
+      <c r="W5" s="7"/>
+      <c r="X5" s="7">
         <v>43072</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5">
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7">
         <v>43073</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5">
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7">
         <v>43074</v>
       </c>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5">
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7">
         <v>43075</v>
       </c>
-      <c r="AE5" s="5"/>
+      <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <f>SUM(C11:C45)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
         <f>SUM(E11:E45)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
         <f>SUM(G11:G45)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
         <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
         <f>SUM(K11:K45)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
         <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8">
         <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
         <f>SUM(Q11:Q45)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
         <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
         <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4">
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
         <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4">
+      <c r="W6" s="8"/>
+      <c r="X6" s="8">
         <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4">
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8">
         <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8">
         <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4">
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8">
         <f t="shared" ref="AD6" si="9">SUM(AE11:AE45)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="4"/>
+      <c r="AE6" s="8"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -7685,7 +7692,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7780,7 +7787,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
@@ -7798,7 +7805,7 @@
       <c r="AD11" s="3"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
@@ -7816,7 +7823,7 @@
       <c r="AD12" s="3"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
@@ -7834,7 +7841,7 @@
       <c r="AD13" s="3"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
@@ -7852,7 +7859,7 @@
       <c r="AD14" s="3"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
@@ -7869,7 +7876,7 @@
       <c r="AD15" s="3"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
@@ -7887,7 +7894,7 @@
       <c r="AD16" s="3"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
@@ -7905,7 +7912,7 @@
       <c r="AD17" s="3"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
@@ -7923,7 +7930,7 @@
       <c r="AD18" s="3"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="F19" s="3"/>
@@ -7941,7 +7948,7 @@
       <c r="AD19" s="3"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="F20" s="3"/>
@@ -7959,7 +7966,7 @@
       <c r="AD20" s="3"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
@@ -7977,7 +7984,7 @@
       <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
@@ -7995,7 +8002,7 @@
       <c r="AD22" s="3"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
@@ -8013,7 +8020,7 @@
       <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
@@ -8031,7 +8038,7 @@
       <c r="AD24" s="3"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
@@ -8049,7 +8056,7 @@
       <c r="AD25" s="3"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
@@ -8067,7 +8074,7 @@
       <c r="AD26" s="3"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="D27" s="3"/>
       <c r="F27" s="3"/>
@@ -8085,7 +8092,7 @@
       <c r="AD27" s="3"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="D28" s="3"/>
       <c r="F28" s="3"/>
@@ -8103,7 +8110,7 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="D29" s="3"/>
       <c r="F29" s="3"/>
@@ -8121,7 +8128,7 @@
       <c r="AD29" s="3"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
@@ -8139,7 +8146,7 @@
       <c r="AD30" s="3"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
@@ -8157,7 +8164,7 @@
       <c r="AD31" s="3"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
@@ -8175,7 +8182,7 @@
       <c r="AD32" s="3"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="D33" s="3"/>
       <c r="F33" s="3"/>
@@ -8193,7 +8200,7 @@
       <c r="AD33" s="3"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="D34" s="3"/>
       <c r="F34" s="3"/>
@@ -8211,7 +8218,7 @@
       <c r="AD34" s="3"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="D35" s="3"/>
       <c r="F35" s="3"/>
@@ -8229,7 +8236,7 @@
       <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
@@ -8247,7 +8254,7 @@
       <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="D37" s="3"/>
       <c r="F37" s="3"/>
@@ -8265,7 +8272,7 @@
       <c r="AD37" s="3"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="D38" s="3"/>
       <c r="F38" s="3"/>
@@ -8283,7 +8290,7 @@
       <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="3"/>
       <c r="D39" s="3"/>
       <c r="F39" s="3"/>
@@ -8301,7 +8308,7 @@
       <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
       <c r="F40" s="3"/>
@@ -8319,7 +8326,7 @@
       <c r="AD40" s="3"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="3"/>
       <c r="D41" s="3"/>
       <c r="F41" s="3"/>
@@ -8337,7 +8344,7 @@
       <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="3"/>
       <c r="D42" s="3"/>
       <c r="F42" s="3"/>
@@ -8355,7 +8362,7 @@
       <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="3"/>
       <c r="D43" s="3"/>
       <c r="F43" s="3"/>
@@ -8373,7 +8380,7 @@
       <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="D44" s="3"/>
       <c r="F44" s="3"/>
@@ -8391,7 +8398,7 @@
       <c r="AD44" s="3"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="D45" s="3"/>
       <c r="F45" s="3"/>
@@ -8409,81 +8416,81 @@
       <c r="AD45" s="3"/>
     </row>
     <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5">
+      <c r="B46" s="7">
         <f>B5</f>
         <v>43061</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7">
         <f t="shared" ref="D46" si="10">D5</f>
         <v>43062</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7">
         <f t="shared" ref="F46" si="11">F5</f>
         <v>43063</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7">
         <f t="shared" ref="H46" si="12">H5</f>
         <v>43064</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5">
+      <c r="I46" s="7"/>
+      <c r="J46" s="7">
         <f t="shared" ref="J46" si="13">J5</f>
         <v>43065</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
         <f t="shared" ref="L46" si="14">L5</f>
         <v>43066</v>
       </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5">
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
         <f t="shared" ref="N46" si="15">N5</f>
         <v>43067</v>
       </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5">
+      <c r="O46" s="7"/>
+      <c r="P46" s="7">
         <f t="shared" ref="P46" si="16">P5</f>
         <v>43068</v>
       </c>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5">
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7">
         <f t="shared" ref="R46" si="17">R5</f>
         <v>43069</v>
       </c>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5">
+      <c r="S46" s="7"/>
+      <c r="T46" s="7">
         <f t="shared" ref="T46" si="18">T5</f>
         <v>43070</v>
       </c>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5">
+      <c r="U46" s="7"/>
+      <c r="V46" s="7">
         <f t="shared" ref="V46" si="19">V5</f>
         <v>43071</v>
       </c>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5">
+      <c r="W46" s="7"/>
+      <c r="X46" s="7">
         <f t="shared" ref="X46" si="20">X5</f>
         <v>43072</v>
       </c>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5">
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7">
         <f t="shared" ref="Z46" si="21">Z5</f>
         <v>43073</v>
       </c>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5">
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7">
         <f t="shared" ref="AB46" si="22">AB5</f>
         <v>43074</v>
       </c>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5">
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7">
         <f>AD5</f>
         <v>43075</v>
       </c>
-      <c r="AE46" s="5"/>
+      <c r="AE46" s="7"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
@@ -8647,11 +8654,61 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A10:A45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
     <mergeCell ref="AD48:AE48"/>
     <mergeCell ref="AD47:AE47"/>
     <mergeCell ref="B48:C48"/>
@@ -8668,61 +8725,11 @@
     <mergeCell ref="V47:W47"/>
     <mergeCell ref="X47:Y47"/>
     <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A10:A45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/planning/Charts/BurndownChart.xlsx
+++ b/planning/Charts/BurndownChart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="11">
   <si>
     <t>effort remaining</t>
   </si>
@@ -1556,10 +1556,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3 Burndown Chart'!$B$46:$AE$46</c:f>
+              <c:f>'Sprint 3 Burndown Chart'!$B$46:$AI$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43089</c:v>
                 </c:pt>
@@ -1604,60 +1604,72 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43116</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3 Burndown Chart'!$B$47:$AE$47</c:f>
+              <c:f>'Sprint 3 Burndown Chart'!$B$47:$AI$47</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,10 +1727,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3 Burndown Chart'!$B$46:$AE$46</c:f>
+              <c:f>'Sprint 3 Burndown Chart'!$B$46:$AI$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43089</c:v>
                 </c:pt>
@@ -1763,60 +1775,72 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43116</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3 Burndown Chart'!$B$48:$AE$48</c:f>
+              <c:f>'Sprint 3 Burndown Chart'!$B$48:$AI$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.73</c:v>
+                  <c:v>36.57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.46</c:v>
+                  <c:v>34.14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.19</c:v>
+                  <c:v>31.71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.92</c:v>
+                  <c:v>29.28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.650000000000002</c:v>
+                  <c:v>26.85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.380000000000003</c:v>
+                  <c:v>24.42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.110000000000003</c:v>
+                  <c:v>21.99</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.840000000000003</c:v>
+                  <c:v>19.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.570000000000004</c:v>
+                  <c:v>17.13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.300000000000004</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0300000000000047</c:v>
+                  <c:v>12.27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.7600000000000051</c:v>
+                  <c:v>9.84</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4900000000000055</c:v>
+                  <c:v>7.41</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2200000000000055</c:v>
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6229,10 +6253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621633D-211F-40C8-9BEF-6BCC5D353A42}">
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="W52" sqref="A51:W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6268,22 +6292,26 @@
     <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>43089</v>
       </c>
@@ -6344,8 +6372,16 @@
         <v>43115</v>
       </c>
       <c r="AE5" s="7"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF5" s="7">
+        <v>43116</v>
+      </c>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7">
+        <v>43117</v>
+      </c>
+      <c r="AI5" s="7"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6396,7 +6432,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8">
         <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U6" s="8"/>
       <c r="V6" s="8">
@@ -6411,7 +6447,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8">
         <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8">
@@ -6424,17 +6460,27 @@
         <v>0</v>
       </c>
       <c r="AE6" s="8"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF6" s="8">
+        <f t="shared" ref="AF6" si="10">SUM(AG11:AG45)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8">
+        <f t="shared" ref="AH6" si="11">SUM(AI11:AI45)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="8"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <f>B3-(SUM(B6:AD6))</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <f>B3-(SUM(B6:AI6))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -6528,8 +6574,20 @@
       <c r="AE10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
@@ -6545,14 +6603,26 @@
       <c r="N11" s="3"/>
       <c r="P11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="T11" s="3">
+        <v>60</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
       <c r="V11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="Z11" s="3">
+        <v>57</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
       <c r="AB11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF11" s="3"/>
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="D12" s="3"/>
@@ -6563,14 +6633,21 @@
       <c r="N12" s="3"/>
       <c r="P12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="3">
+        <v>63</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
       <c r="V12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AD12" s="3"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF12" s="3"/>
+      <c r="AH12" s="3"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
@@ -6581,14 +6658,21 @@
       <c r="N13" s="3"/>
       <c r="P13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="T13" s="3">
+        <v>64</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AD13" s="3"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF13" s="3"/>
+      <c r="AH13" s="3"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
@@ -6605,8 +6689,10 @@
       <c r="Z14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AD14" s="3"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF14" s="3"/>
+      <c r="AH14" s="3"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
@@ -6622,8 +6708,10 @@
       <c r="Z15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AD15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF15" s="3"/>
+      <c r="AH15" s="3"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
@@ -6640,8 +6728,10 @@
       <c r="Z16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF16" s="3"/>
+      <c r="AH16" s="3"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
@@ -6658,8 +6748,10 @@
       <c r="Z17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AD17" s="3"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF17" s="3"/>
+      <c r="AH17" s="3"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
@@ -6676,8 +6768,10 @@
       <c r="Z18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AD18" s="3"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF18" s="3"/>
+      <c r="AH18" s="3"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
@@ -6694,8 +6788,10 @@
       <c r="Z19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF19" s="3"/>
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
@@ -6712,8 +6808,10 @@
       <c r="Z20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AD20" s="3"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF20" s="3"/>
+      <c r="AH20" s="3"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="D21" s="3"/>
@@ -6730,8 +6828,10 @@
       <c r="Z21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF21" s="3"/>
+      <c r="AH21" s="3"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
@@ -6748,8 +6848,10 @@
       <c r="Z22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AD22" s="3"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF22" s="3"/>
+      <c r="AH22" s="3"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
@@ -6766,8 +6868,10 @@
       <c r="Z23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AD23" s="3"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF23" s="3"/>
+      <c r="AH23" s="3"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="D24" s="3"/>
@@ -6784,8 +6888,10 @@
       <c r="Z24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AD24" s="3"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF24" s="3"/>
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
@@ -6802,8 +6908,10 @@
       <c r="Z25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AD25" s="3"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF25" s="3"/>
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="D26" s="3"/>
@@ -6820,8 +6928,10 @@
       <c r="Z26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AD26" s="3"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF26" s="3"/>
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="D27" s="3"/>
@@ -6838,8 +6948,10 @@
       <c r="Z27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AD27" s="3"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF27" s="3"/>
+      <c r="AH27" s="3"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="D28" s="3"/>
@@ -6856,8 +6968,10 @@
       <c r="Z28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AD28" s="3"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF28" s="3"/>
+      <c r="AH28" s="3"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="D29" s="3"/>
@@ -6874,8 +6988,10 @@
       <c r="Z29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AD29" s="3"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF29" s="3"/>
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="D30" s="3"/>
@@ -6892,8 +7008,10 @@
       <c r="Z30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AD30" s="3"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF30" s="3"/>
+      <c r="AH30" s="3"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="D31" s="3"/>
@@ -6910,8 +7028,10 @@
       <c r="Z31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AD31" s="3"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF31" s="3"/>
+      <c r="AH31" s="3"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="D32" s="3"/>
@@ -6928,8 +7048,10 @@
       <c r="Z32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AD32" s="3"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF32" s="3"/>
+      <c r="AH32" s="3"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="D33" s="3"/>
@@ -6946,8 +7068,10 @@
       <c r="Z33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AD33" s="3"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF33" s="3"/>
+      <c r="AH33" s="3"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="D34" s="3"/>
@@ -6964,8 +7088,10 @@
       <c r="Z34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AD34" s="3"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF34" s="3"/>
+      <c r="AH34" s="3"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="D35" s="3"/>
@@ -6982,8 +7108,10 @@
       <c r="Z35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AD35" s="3"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF35" s="3"/>
+      <c r="AH35" s="3"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="D36" s="3"/>
@@ -7000,8 +7128,10 @@
       <c r="Z36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AD36" s="3"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF36" s="3"/>
+      <c r="AH36" s="3"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="D37" s="3"/>
@@ -7018,8 +7148,10 @@
       <c r="Z37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AD37" s="3"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF37" s="3"/>
+      <c r="AH37" s="3"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="D38" s="3"/>
@@ -7036,8 +7168,10 @@
       <c r="Z38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AD38" s="3"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF38" s="3"/>
+      <c r="AH38" s="3"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="3"/>
       <c r="D39" s="3"/>
@@ -7054,8 +7188,10 @@
       <c r="Z39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF39" s="3"/>
+      <c r="AH39" s="3"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
@@ -7072,8 +7208,10 @@
       <c r="Z40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF40" s="3"/>
+      <c r="AH40" s="3"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="3"/>
       <c r="D41" s="3"/>
@@ -7090,8 +7228,10 @@
       <c r="Z41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AD41" s="3"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF41" s="3"/>
+      <c r="AH41" s="3"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="3"/>
       <c r="D42" s="3"/>
@@ -7108,8 +7248,10 @@
       <c r="Z42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AD42" s="3"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF42" s="3"/>
+      <c r="AH42" s="3"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="3"/>
       <c r="D43" s="3"/>
@@ -7126,8 +7268,10 @@
       <c r="Z43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AD43" s="3"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF43" s="3"/>
+      <c r="AH43" s="3"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="D44" s="3"/>
@@ -7144,8 +7288,10 @@
       <c r="Z44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AD44" s="3"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF44" s="3"/>
+      <c r="AH44" s="3"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="D45" s="3"/>
@@ -7162,75 +7308,77 @@
       <c r="Z45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AD45" s="3"/>
-    </row>
-    <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF45" s="3"/>
+      <c r="AH45" s="3"/>
+    </row>
+    <row r="46" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7">
         <f>B5</f>
         <v>43089</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7">
-        <f t="shared" ref="D46" si="10">D5</f>
+        <f t="shared" ref="D46" si="12">D5</f>
         <v>43096</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7">
-        <f t="shared" ref="F46" si="11">F5</f>
+        <f t="shared" ref="F46" si="13">F5</f>
         <v>43103</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7">
-        <f t="shared" ref="H46" si="12">H5</f>
+        <f t="shared" ref="H46" si="14">H5</f>
         <v>43104</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7">
-        <f t="shared" ref="J46" si="13">J5</f>
+        <f t="shared" ref="J46" si="15">J5</f>
         <v>43105</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7">
-        <f t="shared" ref="L46" si="14">L5</f>
+        <f t="shared" ref="L46" si="16">L5</f>
         <v>43106</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7">
-        <f t="shared" ref="N46" si="15">N5</f>
+        <f t="shared" ref="N46" si="17">N5</f>
         <v>43107</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7">
-        <f t="shared" ref="P46" si="16">P5</f>
+        <f t="shared" ref="P46" si="18">P5</f>
         <v>43108</v>
       </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="7">
-        <f t="shared" ref="R46" si="17">R5</f>
+        <f t="shared" ref="R46" si="19">R5</f>
         <v>43109</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7">
-        <f t="shared" ref="T46" si="18">T5</f>
+        <f t="shared" ref="T46" si="20">T5</f>
         <v>43110</v>
       </c>
       <c r="U46" s="7"/>
       <c r="V46" s="7">
-        <f t="shared" ref="V46" si="19">V5</f>
+        <f t="shared" ref="V46" si="21">V5</f>
         <v>43111</v>
       </c>
       <c r="W46" s="7"/>
       <c r="X46" s="7">
-        <f t="shared" ref="X46" si="20">X5</f>
+        <f t="shared" ref="X46" si="22">X5</f>
         <v>43112</v>
       </c>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7">
-        <f t="shared" ref="Z46" si="21">Z5</f>
+        <f t="shared" ref="Z46" si="23">Z5</f>
         <v>43113</v>
       </c>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7">
-        <f t="shared" ref="AB46" si="22">AB5</f>
+        <f t="shared" ref="AB46" si="24">AB5</f>
         <v>43114</v>
       </c>
       <c r="AC46" s="7"/>
@@ -7239,169 +7387,183 @@
         <v>43115</v>
       </c>
       <c r="AE46" s="7"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF46" s="7">
+        <f t="shared" ref="AF46" si="25">AF5</f>
+        <v>43116</v>
+      </c>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7">
+        <f>AH5</f>
+        <v>43117</v>
+      </c>
+      <c r="AI46" s="7"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="6">
         <f>$B$3-B6</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6">
         <f>B47-D6</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6">
         <f>D47-F6</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6">
         <f>F47-H6</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6">
         <f>H47-J6</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6">
         <f>J47-L6</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6">
         <f>L47-N6</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6">
         <f>N47-P6</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6">
         <f>P47-R6</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47" s="6">
         <f>R47-T6</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U47" s="6"/>
       <c r="V47" s="6">
         <f>T47-V6</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W47" s="6"/>
       <c r="X47" s="6">
         <f>V47-X6</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6">
         <f>X47-Z6</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6">
         <f>Z47-AB6</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AC47" s="6"/>
       <c r="AD47" s="6">
         <f>AB47-AD6</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AE47" s="6"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF47" s="6">
+        <f>AD47-AF6</f>
+        <v>18</v>
+      </c>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6">
+        <f>AF47-AH6</f>
+        <v>18</v>
+      </c>
+      <c r="AI47" s="6"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="6">
         <f>B3</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6">
-        <f>B48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>31.73</v>
+        <v>36.57</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6">
-        <f t="shared" ref="F48" si="23">D48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>29.46</v>
+        <v>34.14</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6">
-        <f t="shared" ref="H48" si="24">F48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>27.19</v>
+        <v>31.71</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6">
-        <f t="shared" ref="J48" si="25">H48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>24.92</v>
+        <v>29.28</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6">
-        <f t="shared" ref="L48" si="26">J48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>22.650000000000002</v>
+        <v>26.85</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6">
-        <f t="shared" ref="N48" si="27">L48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>20.380000000000003</v>
+        <v>24.42</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6">
-        <f t="shared" ref="P48" si="28">N48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>18.110000000000003</v>
+        <v>21.99</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6">
-        <f t="shared" ref="R48" si="29">P48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>15.840000000000003</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6">
-        <f t="shared" ref="T48" si="30">R48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>13.570000000000004</v>
+        <v>17.13</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6">
-        <f t="shared" ref="V48" si="31">T48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>11.300000000000004</v>
+        <v>14.7</v>
       </c>
       <c r="W48" s="6"/>
       <c r="X48" s="6">
-        <f t="shared" ref="X48" si="32">V48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>9.0300000000000047</v>
+        <v>12.27</v>
       </c>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6">
-        <f t="shared" ref="Z48" si="33">X48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>6.7600000000000051</v>
+        <v>9.84</v>
       </c>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6">
-        <f t="shared" ref="AB48" si="34">Z48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>4.4900000000000055</v>
+        <v>7.41</v>
       </c>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6">
-        <f t="shared" ref="AD48" si="35">AB48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>2.2200000000000055</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="AE48" s="6"/>
+      <c r="AF48" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AI48" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="86">
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
@@ -7478,6 +7640,16 @@
     <mergeCell ref="X48:Y48"/>
     <mergeCell ref="Z48:AA48"/>
     <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AH47:AI47"/>
+    <mergeCell ref="AF48:AG48"/>
+    <mergeCell ref="AH48:AI48"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="AH46:AI46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/planning/Charts/BurndownChart.xlsx
+++ b/planning/Charts/BurndownChart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="13">
   <si>
     <t>effort remaining</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Sprint 3 Burndown Chart</t>
+  </si>
+  <si>
+    <t>#44</t>
+  </si>
+  <si>
+    <t>#65</t>
   </si>
 </sst>
 </file>
@@ -159,17 +165,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1663,13 +1669,13 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,146 +3730,146 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>43061</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
         <v>43062</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>43063</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
         <v>43064</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
         <v>43065</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>43066</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
         <v>43067</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6">
         <v>43068</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
         <v>43069</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7">
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
         <v>43070</v>
       </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7">
+      <c r="U5" s="6"/>
+      <c r="V5" s="6">
         <v>43071</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7">
+      <c r="W5" s="6"/>
+      <c r="X5" s="6">
         <v>43072</v>
       </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6">
         <v>43073</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7">
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6">
         <v>43074</v>
       </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7">
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6">
         <v>43075</v>
       </c>
-      <c r="AE5" s="7"/>
+      <c r="AE5" s="6"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <f>SUM(C11:C45)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <f>SUM(E11:E45)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
         <f>SUM(G11:G45)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
         <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
         <f>SUM(K11:K45)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
         <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
         <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
         <f>SUM(Q11:Q45)</f>
         <v>10</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5">
         <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
         <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8">
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
         <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8">
+      <c r="W6" s="5"/>
+      <c r="X6" s="5">
         <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8">
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5">
         <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8">
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5">
         <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
         <v>1</v>
       </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8">
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5">
         <f>SUM(AE11:AE45)</f>
         <v>21</v>
       </c>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="5"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -3875,7 +3881,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3970,7 +3976,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3">
         <v>12</v>
       </c>
@@ -4013,7 +4019,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3">
         <v>13</v>
       </c>
@@ -4045,7 +4051,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
@@ -4073,7 +4079,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
@@ -4101,7 +4107,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
@@ -4123,7 +4129,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
@@ -4146,7 +4152,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
@@ -4169,7 +4175,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
@@ -4187,7 +4193,7 @@
       <c r="AD18" s="3"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="8"/>
       <c r="D19" s="3"/>
       <c r="F19" s="3"/>
       <c r="H19" s="3"/>
@@ -4204,7 +4210,7 @@
       <c r="AD19" s="3"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="8"/>
       <c r="D20" s="3"/>
       <c r="F20" s="3"/>
       <c r="H20" s="3"/>
@@ -4221,7 +4227,7 @@
       <c r="AD20" s="3"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
@@ -4239,7 +4245,7 @@
       <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
@@ -4257,7 +4263,7 @@
       <c r="AD22" s="3"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
@@ -4275,7 +4281,7 @@
       <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
@@ -4293,7 +4299,7 @@
       <c r="AD24" s="3"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
@@ -4311,7 +4317,7 @@
       <c r="AD25" s="3"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
@@ -4329,7 +4335,7 @@
       <c r="AD26" s="3"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="D27" s="3"/>
       <c r="F27" s="3"/>
@@ -4347,7 +4353,7 @@
       <c r="AD27" s="3"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="D28" s="3"/>
       <c r="F28" s="3"/>
@@ -4365,7 +4371,7 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="D29" s="3"/>
       <c r="F29" s="3"/>
@@ -4383,7 +4389,7 @@
       <c r="AD29" s="3"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
@@ -4401,7 +4407,7 @@
       <c r="AD30" s="3"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
@@ -4419,7 +4425,7 @@
       <c r="AD31" s="3"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3"/>
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
@@ -4437,7 +4443,7 @@
       <c r="AD32" s="3"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="3"/>
       <c r="D33" s="3"/>
       <c r="F33" s="3"/>
@@ -4455,7 +4461,7 @@
       <c r="AD33" s="3"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="3"/>
       <c r="D34" s="3"/>
       <c r="F34" s="3"/>
@@ -4473,7 +4479,7 @@
       <c r="AD34" s="3"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3"/>
       <c r="D35" s="3"/>
       <c r="F35" s="3"/>
@@ -4491,7 +4497,7 @@
       <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="3"/>
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
@@ -4509,7 +4515,7 @@
       <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="D37" s="3"/>
       <c r="F37" s="3"/>
@@ -4527,7 +4533,7 @@
       <c r="AD37" s="3"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="D38" s="3"/>
       <c r="F38" s="3"/>
@@ -4545,7 +4551,7 @@
       <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="3"/>
       <c r="D39" s="3"/>
       <c r="F39" s="3"/>
@@ -4563,7 +4569,7 @@
       <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
       <c r="F40" s="3"/>
@@ -4581,7 +4587,7 @@
       <c r="AD40" s="3"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3"/>
       <c r="D41" s="3"/>
       <c r="F41" s="3"/>
@@ -4599,7 +4605,7 @@
       <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="3"/>
       <c r="D42" s="3"/>
       <c r="F42" s="3"/>
@@ -4617,7 +4623,7 @@
       <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="3"/>
       <c r="D43" s="3"/>
       <c r="F43" s="3"/>
@@ -4635,7 +4641,7 @@
       <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="D44" s="3"/>
       <c r="F44" s="3"/>
@@ -4653,7 +4659,7 @@
       <c r="AD44" s="3"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="D45" s="3"/>
       <c r="F45" s="3"/>
@@ -4671,222 +4677,268 @@
       <c r="AD45" s="3"/>
     </row>
     <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>43061</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6">
         <v>43062</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
         <v>43063</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
         <v>43064</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7">
+      <c r="I46" s="6"/>
+      <c r="J46" s="6">
         <v>43065</v>
       </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7">
+      <c r="K46" s="6"/>
+      <c r="L46" s="6">
         <v>43066</v>
       </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7">
+      <c r="M46" s="6"/>
+      <c r="N46" s="6">
         <v>43067</v>
       </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7">
+      <c r="O46" s="6"/>
+      <c r="P46" s="6">
         <v>43068</v>
       </c>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7">
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6">
         <v>43069</v>
       </c>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7">
+      <c r="S46" s="6"/>
+      <c r="T46" s="6">
         <v>43070</v>
       </c>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7">
+      <c r="U46" s="6"/>
+      <c r="V46" s="6">
         <v>43071</v>
       </c>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7">
+      <c r="W46" s="6"/>
+      <c r="X46" s="6">
         <v>43072</v>
       </c>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7">
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6">
         <v>43073</v>
       </c>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7">
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6">
         <v>43074</v>
       </c>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7">
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6">
         <v>43075</v>
       </c>
-      <c r="AE46" s="7"/>
+      <c r="AE46" s="6"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="7">
         <f>$B$3-B6</f>
         <v>33</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7">
         <f>B47-D6</f>
         <v>33</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7">
         <f>D47-F6</f>
         <v>33</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7">
         <f>F47-H6</f>
         <v>32</v>
       </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6">
+      <c r="I47" s="7"/>
+      <c r="J47" s="7">
         <f>H47-J6</f>
         <v>32</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6">
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
         <f>J47-L6</f>
         <v>32</v>
       </c>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6">
+      <c r="M47" s="7"/>
+      <c r="N47" s="7">
         <f>L47-N6</f>
         <v>32</v>
       </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6">
+      <c r="O47" s="7"/>
+      <c r="P47" s="7">
         <f>N47-P6</f>
         <v>22</v>
       </c>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6">
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7">
         <f>P47-R6</f>
         <v>22</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6">
+      <c r="S47" s="7"/>
+      <c r="T47" s="7">
         <f>R47-T6</f>
         <v>22</v>
       </c>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6">
+      <c r="U47" s="7"/>
+      <c r="V47" s="7">
         <f>T47-V6</f>
         <v>22</v>
       </c>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6">
+      <c r="W47" s="7"/>
+      <c r="X47" s="7">
         <f>V47-X6</f>
         <v>22</v>
       </c>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6">
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7">
         <f>X47-Z6</f>
         <v>22</v>
       </c>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6">
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7">
         <f>Z47-AB6</f>
         <v>21</v>
       </c>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6">
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7">
         <f>AB47-AD6</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="6"/>
+      <c r="AE47" s="7"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="7">
         <f>B3</f>
         <v>35</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7">
         <v>32.5</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7">
         <v>30</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7">
         <v>27.5</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6">
+      <c r="I48" s="7"/>
+      <c r="J48" s="7">
         <v>25</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6">
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
         <v>22</v>
       </c>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6">
+      <c r="M48" s="7"/>
+      <c r="N48" s="7">
         <v>19.5</v>
       </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6">
+      <c r="O48" s="7"/>
+      <c r="P48" s="7">
         <v>17</v>
       </c>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6">
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7">
         <v>14.5</v>
       </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6">
+      <c r="S48" s="7"/>
+      <c r="T48" s="7">
         <v>12</v>
       </c>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6">
+      <c r="U48" s="7"/>
+      <c r="V48" s="7">
         <v>9.5</v>
       </c>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6">
+      <c r="W48" s="7"/>
+      <c r="X48" s="7">
         <v>7</v>
       </c>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6">
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7">
         <v>4.5</v>
       </c>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6">
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7">
         <v>2</v>
       </c>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6">
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7">
         <v>0</v>
       </c>
-      <c r="AE48" s="6"/>
+      <c r="AE48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A10:A45"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="H46:I46"/>
@@ -4903,59 +4955,13 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="A10:A45"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
@@ -5020,146 +5026,146 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>43075</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
         <v>43076</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>43077</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
         <v>43078</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
         <v>43079</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>43080</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
         <v>43081</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6">
         <v>43082</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
         <v>43083</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7">
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
         <v>43084</v>
       </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7">
+      <c r="U5" s="6"/>
+      <c r="V5" s="6">
         <v>43085</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7">
+      <c r="W5" s="6"/>
+      <c r="X5" s="6">
         <v>43086</v>
       </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6">
         <v>43087</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7">
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6">
         <v>43088</v>
       </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7">
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6">
         <v>43089</v>
       </c>
-      <c r="AE5" s="7"/>
+      <c r="AE5" s="6"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <f>SUM(C11:C45)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <f>SUM(E11:E45)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
         <f>SUM(G11:G45)</f>
         <v>2</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
         <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
         <f>SUM(K11:K45)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
         <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
         <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
         <f>SUM(Q11:Q45)</f>
         <v>14</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5">
         <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
         <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8">
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
         <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8">
+      <c r="W6" s="5"/>
+      <c r="X6" s="5">
         <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8">
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5">
         <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8">
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5">
         <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8">
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5">
         <f>SUM(AE12:AE45)</f>
         <v>12</v>
       </c>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="5"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -5171,7 +5177,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5266,7 +5272,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3">
@@ -5304,7 +5310,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
@@ -5332,7 +5338,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
@@ -5355,7 +5361,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
@@ -5378,7 +5384,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
@@ -5400,7 +5406,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
@@ -5423,7 +5429,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
@@ -5441,7 +5447,7 @@
       <c r="AD17" s="3"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
@@ -5459,7 +5465,7 @@
       <c r="AD18" s="3"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="F19" s="3"/>
@@ -5477,7 +5483,7 @@
       <c r="AD19" s="3"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="F20" s="3"/>
@@ -5495,7 +5501,7 @@
       <c r="AD20" s="3"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
@@ -5513,7 +5519,7 @@
       <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
@@ -5531,7 +5537,7 @@
       <c r="AD22" s="3"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
@@ -5549,7 +5555,7 @@
       <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
@@ -5567,7 +5573,7 @@
       <c r="AD24" s="3"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
@@ -5585,7 +5591,7 @@
       <c r="AD25" s="3"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
@@ -5603,7 +5609,7 @@
       <c r="AD26" s="3"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="D27" s="3"/>
       <c r="F27" s="3"/>
@@ -5621,7 +5627,7 @@
       <c r="AD27" s="3"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="D28" s="3"/>
       <c r="F28" s="3"/>
@@ -5639,7 +5645,7 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="D29" s="3"/>
       <c r="F29" s="3"/>
@@ -5657,7 +5663,7 @@
       <c r="AD29" s="3"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
@@ -5675,7 +5681,7 @@
       <c r="AD30" s="3"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
@@ -5693,7 +5699,7 @@
       <c r="AD31" s="3"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3"/>
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
@@ -5711,7 +5717,7 @@
       <c r="AD32" s="3"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="3"/>
       <c r="D33" s="3"/>
       <c r="F33" s="3"/>
@@ -5729,7 +5735,7 @@
       <c r="AD33" s="3"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="3"/>
       <c r="D34" s="3"/>
       <c r="F34" s="3"/>
@@ -5747,7 +5753,7 @@
       <c r="AD34" s="3"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3"/>
       <c r="D35" s="3"/>
       <c r="F35" s="3"/>
@@ -5765,7 +5771,7 @@
       <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="3"/>
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
@@ -5783,7 +5789,7 @@
       <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="D37" s="3"/>
       <c r="F37" s="3"/>
@@ -5801,7 +5807,7 @@
       <c r="AD37" s="3"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="D38" s="3"/>
       <c r="F38" s="3"/>
@@ -5819,7 +5825,7 @@
       <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="3"/>
       <c r="D39" s="3"/>
       <c r="F39" s="3"/>
@@ -5837,7 +5843,7 @@
       <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
       <c r="F40" s="3"/>
@@ -5855,7 +5861,7 @@
       <c r="AD40" s="3"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3"/>
       <c r="D41" s="3"/>
       <c r="F41" s="3"/>
@@ -5873,7 +5879,7 @@
       <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="3"/>
       <c r="D42" s="3"/>
       <c r="F42" s="3"/>
@@ -5891,7 +5897,7 @@
       <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="3"/>
       <c r="D43" s="3"/>
       <c r="F43" s="3"/>
@@ -5909,7 +5915,7 @@
       <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="D44" s="3"/>
       <c r="F44" s="3"/>
@@ -5927,7 +5933,7 @@
       <c r="AD44" s="3"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="D45" s="3"/>
       <c r="F45" s="3"/>
@@ -5945,227 +5951,2894 @@
       <c r="AD45" s="3"/>
     </row>
     <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <f>B5</f>
         <v>43075</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6">
         <f t="shared" ref="D46" si="9">D5</f>
         <v>43076</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
         <f t="shared" ref="F46" si="10">F5</f>
         <v>43077</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
         <f t="shared" ref="H46" si="11">H5</f>
         <v>43078</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7">
+      <c r="I46" s="6"/>
+      <c r="J46" s="6">
         <f t="shared" ref="J46" si="12">J5</f>
         <v>43079</v>
       </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7">
+      <c r="K46" s="6"/>
+      <c r="L46" s="6">
         <f t="shared" ref="L46" si="13">L5</f>
         <v>43080</v>
       </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7">
+      <c r="M46" s="6"/>
+      <c r="N46" s="6">
         <f t="shared" ref="N46" si="14">N5</f>
         <v>43081</v>
       </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7">
+      <c r="O46" s="6"/>
+      <c r="P46" s="6">
         <f t="shared" ref="P46" si="15">P5</f>
         <v>43082</v>
       </c>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7">
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6">
         <f t="shared" ref="R46" si="16">R5</f>
         <v>43083</v>
       </c>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7">
+      <c r="S46" s="6"/>
+      <c r="T46" s="6">
         <f t="shared" ref="T46" si="17">T5</f>
         <v>43084</v>
       </c>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7">
+      <c r="U46" s="6"/>
+      <c r="V46" s="6">
         <f t="shared" ref="V46" si="18">V5</f>
         <v>43085</v>
       </c>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7">
+      <c r="W46" s="6"/>
+      <c r="X46" s="6">
         <f t="shared" ref="X46" si="19">X5</f>
         <v>43086</v>
       </c>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7">
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6">
         <f t="shared" ref="Z46" si="20">Z5</f>
         <v>43087</v>
       </c>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7">
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6">
         <f t="shared" ref="AB46" si="21">AB5</f>
         <v>43088</v>
       </c>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7">
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6">
         <f>AD5</f>
         <v>43089</v>
       </c>
-      <c r="AE46" s="7"/>
+      <c r="AE46" s="6"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="7">
         <f>$B$3-B6</f>
         <v>38</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7">
         <f>B47-D6</f>
         <v>38</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7">
         <f>D47-F6</f>
         <v>36</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7">
         <f>F47-H6</f>
         <v>36</v>
       </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6">
+      <c r="I47" s="7"/>
+      <c r="J47" s="7">
         <f>H47-J6</f>
         <v>36</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6">
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
         <f>J47-L6</f>
         <v>36</v>
       </c>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6">
+      <c r="M47" s="7"/>
+      <c r="N47" s="7">
         <f>L47-N6</f>
         <v>36</v>
       </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6">
+      <c r="O47" s="7"/>
+      <c r="P47" s="7">
         <f>N47-P6</f>
         <v>22</v>
       </c>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6">
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7">
         <f>P47-R6</f>
         <v>22</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6">
+      <c r="S47" s="7"/>
+      <c r="T47" s="7">
         <f>R47-T6</f>
         <v>22</v>
       </c>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6">
+      <c r="U47" s="7"/>
+      <c r="V47" s="7">
         <f>T47-V6</f>
         <v>22</v>
       </c>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6">
+      <c r="W47" s="7"/>
+      <c r="X47" s="7">
         <f>V47-X6</f>
         <v>22</v>
       </c>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6">
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7">
         <f>X47-Z6</f>
         <v>21</v>
       </c>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6">
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7">
         <f>Z47-AB6</f>
         <v>21</v>
       </c>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6">
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7">
         <f>AB47-AD6</f>
         <v>9</v>
       </c>
-      <c r="AE47" s="6"/>
+      <c r="AE47" s="7"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="7">
         <f>B3</f>
         <v>38</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7">
         <v>35.4</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7">
         <v>32.700000000000003</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7">
         <v>30</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6">
+      <c r="I48" s="7"/>
+      <c r="J48" s="7">
         <v>27.4</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6">
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
         <v>24.8</v>
       </c>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6">
+      <c r="M48" s="7"/>
+      <c r="N48" s="7">
         <v>22.1</v>
       </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6">
+      <c r="O48" s="7"/>
+      <c r="P48" s="7">
         <v>19.5</v>
       </c>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6">
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7">
         <v>16.8</v>
       </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6">
+      <c r="S48" s="7"/>
+      <c r="T48" s="7">
         <v>14.1</v>
       </c>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6">
+      <c r="U48" s="7"/>
+      <c r="V48" s="7">
         <v>11.5</v>
       </c>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6">
+      <c r="W48" s="7"/>
+      <c r="X48" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6">
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7">
         <v>6.2</v>
       </c>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6">
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7">
         <v>3.55</v>
       </c>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6">
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7">
         <v>0.9</v>
       </c>
-      <c r="AE48" s="6"/>
+      <c r="AE48" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A10:A45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621633D-211F-40C8-9BEF-6BCC5D353A42}">
+  <dimension ref="A1:AI48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>43089</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>43096</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>43103</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
+        <v>43104</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
+        <v>43105</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
+        <v>43106</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
+        <v>43107</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6">
+        <v>43108</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
+        <v>43109</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
+        <v>43110</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6">
+        <v>43111</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6">
+        <v>43112</v>
+      </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6">
+        <v>43113</v>
+      </c>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6">
+        <v>43114</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6">
+        <v>43115</v>
+      </c>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6">
+        <v>43116</v>
+      </c>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6">
+        <v>43117</v>
+      </c>
+      <c r="AI5" s="6"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <f>SUM(C11:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <f>SUM(E11:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <f>SUM(G11:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
+        <f>SUM(K11:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
+        <f>SUM(Q11:Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5">
+        <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
+        <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
+        <v>8</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
+        <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5">
+        <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5">
+        <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
+        <v>5</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5">
+        <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5">
+        <f t="shared" ref="AD6" si="9">SUM(AE11:AE45)</f>
+        <v>10</v>
+      </c>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5">
+        <f t="shared" ref="AF6" si="10">SUM(AG11:AG45)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5">
+        <f t="shared" ref="AH6" si="11">SUM(AI11:AI45)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>B3-(SUM(B6:AI6))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="3">
+        <v>55</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="3">
+        <v>60</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Z11" s="3">
+        <v>57</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="3"/>
+      <c r="AD11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE11">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="3"/>
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="3">
+        <v>63</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AD12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="3"/>
+      <c r="AH12" s="3"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="T13" s="3">
+        <v>64</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AH13" s="3"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AH14" s="3"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AH15" s="3"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AH16" s="3"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AH17" s="3"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AH18" s="3"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AH20" s="3"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AH21" s="3"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AH22" s="3"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AH23" s="3"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AH27" s="3"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AH28" s="3"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AH30" s="3"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AH31" s="3"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AH32" s="3"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AH33" s="3"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AH34" s="3"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AH35" s="3"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AH36" s="3"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AH37" s="3"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AH38" s="3"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AH39" s="3"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AH40" s="3"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AH41" s="3"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AH42" s="3"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AH43" s="3"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AH44" s="3"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AH45" s="3"/>
+    </row>
+    <row r="46" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="6">
+        <f>B5</f>
+        <v>43089</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6">
+        <f t="shared" ref="D46" si="12">D5</f>
+        <v>43096</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
+        <f t="shared" ref="F46" si="13">F5</f>
+        <v>43103</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
+        <f t="shared" ref="H46" si="14">H5</f>
+        <v>43104</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6">
+        <f t="shared" ref="J46" si="15">J5</f>
+        <v>43105</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6">
+        <f t="shared" ref="L46" si="16">L5</f>
+        <v>43106</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6">
+        <f t="shared" ref="N46" si="17">N5</f>
+        <v>43107</v>
+      </c>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6">
+        <f t="shared" ref="P46" si="18">P5</f>
+        <v>43108</v>
+      </c>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6">
+        <f t="shared" ref="R46" si="19">R5</f>
+        <v>43109</v>
+      </c>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6">
+        <f t="shared" ref="T46" si="20">T5</f>
+        <v>43110</v>
+      </c>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6">
+        <f t="shared" ref="V46" si="21">V5</f>
+        <v>43111</v>
+      </c>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6">
+        <f t="shared" ref="X46" si="22">X5</f>
+        <v>43112</v>
+      </c>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6">
+        <f t="shared" ref="Z46" si="23">Z5</f>
+        <v>43113</v>
+      </c>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6">
+        <f t="shared" ref="AB46" si="24">AB5</f>
+        <v>43114</v>
+      </c>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6">
+        <f>AD5</f>
+        <v>43115</v>
+      </c>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6">
+        <f t="shared" ref="AF46" si="25">AF5</f>
+        <v>43116</v>
+      </c>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6">
+        <f>AH5</f>
+        <v>43117</v>
+      </c>
+      <c r="AI46" s="6"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="7">
+        <f>$B$3-B6</f>
+        <v>39</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7">
+        <f>B47-D6</f>
+        <v>39</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7">
+        <f>D47-F6</f>
+        <v>39</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7">
+        <f>F47-H6</f>
+        <v>39</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7">
+        <f>H47-J6</f>
+        <v>39</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
+        <f>J47-L6</f>
+        <v>31</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7">
+        <f>L47-N6</f>
+        <v>31</v>
+      </c>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7">
+        <f>N47-P6</f>
+        <v>31</v>
+      </c>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7">
+        <f>P47-R6</f>
+        <v>31</v>
+      </c>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7">
+        <f>R47-T6</f>
+        <v>23</v>
+      </c>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7">
+        <f>T47-V6</f>
+        <v>23</v>
+      </c>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7">
+        <f>V47-X6</f>
+        <v>23</v>
+      </c>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7">
+        <f>X47-Z6</f>
+        <v>18</v>
+      </c>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7">
+        <f>Z47-AB6</f>
+        <v>18</v>
+      </c>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7">
+        <f>AB47-AD6</f>
+        <v>8</v>
+      </c>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7">
+        <f>AD47-AF6</f>
+        <v>8</v>
+      </c>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7">
+        <f>AF47-AH6</f>
+        <v>8</v>
+      </c>
+      <c r="AI47" s="7"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="7">
+        <f>B3</f>
+        <v>39</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7">
+        <v>36.57</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7">
+        <v>34.14</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7">
+        <v>31.71</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7">
+        <v>29.28</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
+        <v>26.85</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7">
+        <v>24.42</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7">
+        <v>21.99</v>
+      </c>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7">
+        <v>17.13</v>
+      </c>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7">
+        <v>12.27</v>
+      </c>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7">
+        <v>9.84</v>
+      </c>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7">
+        <v>7.41</v>
+      </c>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI48" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AH47:AI47"/>
+    <mergeCell ref="AF48:AG48"/>
+    <mergeCell ref="AH48:AI48"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="AH46:AI46"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A10:A45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AE48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>43061</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>43062</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>43063</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
+        <v>43064</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
+        <v>43065</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
+        <v>43066</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
+        <v>43067</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6">
+        <v>43068</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
+        <v>43069</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
+        <v>43070</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6">
+        <v>43071</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6">
+        <v>43072</v>
+      </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6">
+        <v>43073</v>
+      </c>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6">
+        <v>43074</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6">
+        <v>43075</v>
+      </c>
+      <c r="AE5" s="6"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <f>SUM(C11:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <f>SUM(E11:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <f>SUM(G11:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
+        <f>SUM(K11:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
+        <f>SUM(Q11:Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5">
+        <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
+        <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
+        <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5">
+        <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5">
+        <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5">
+        <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5">
+        <f t="shared" ref="AD6" si="9">SUM(AE11:AE45)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>B3-(SUM(B6:AD6))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AD12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AD14" s="3"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AD15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AD18" s="3"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AD30" s="3"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AD31" s="3"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AD34" s="3"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AD35" s="3"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AD36" s="3"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AD37" s="3"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AD38" s="3"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AD41" s="3"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AD42" s="3"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AD43" s="3"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AD44" s="3"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AD45" s="3"/>
+    </row>
+    <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="6">
+        <f>B5</f>
+        <v>43061</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6">
+        <f t="shared" ref="D46" si="10">D5</f>
+        <v>43062</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
+        <f t="shared" ref="F46" si="11">F5</f>
+        <v>43063</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
+        <f t="shared" ref="H46" si="12">H5</f>
+        <v>43064</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6">
+        <f t="shared" ref="J46" si="13">J5</f>
+        <v>43065</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6">
+        <f t="shared" ref="L46" si="14">L5</f>
+        <v>43066</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6">
+        <f t="shared" ref="N46" si="15">N5</f>
+        <v>43067</v>
+      </c>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6">
+        <f t="shared" ref="P46" si="16">P5</f>
+        <v>43068</v>
+      </c>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6">
+        <f t="shared" ref="R46" si="17">R5</f>
+        <v>43069</v>
+      </c>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6">
+        <f t="shared" ref="T46" si="18">T5</f>
+        <v>43070</v>
+      </c>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6">
+        <f t="shared" ref="V46" si="19">V5</f>
+        <v>43071</v>
+      </c>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6">
+        <f t="shared" ref="X46" si="20">X5</f>
+        <v>43072</v>
+      </c>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6">
+        <f t="shared" ref="Z46" si="21">Z5</f>
+        <v>43073</v>
+      </c>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6">
+        <f t="shared" ref="AB46" si="22">AB5</f>
+        <v>43074</v>
+      </c>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6">
+        <f>AD5</f>
+        <v>43075</v>
+      </c>
+      <c r="AE46" s="6"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="7">
+        <f>$B$3-B6</f>
+        <v>25</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7">
+        <f>B47-D6</f>
+        <v>25</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7">
+        <f>D47-F6</f>
+        <v>25</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7">
+        <f>F47-H6</f>
+        <v>25</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7">
+        <f>H47-J6</f>
+        <v>25</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
+        <f>J47-L6</f>
+        <v>25</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7">
+        <f>L47-N6</f>
+        <v>25</v>
+      </c>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7">
+        <f>N47-P6</f>
+        <v>25</v>
+      </c>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7">
+        <f>P47-R6</f>
+        <v>25</v>
+      </c>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7">
+        <f>R47-T6</f>
+        <v>25</v>
+      </c>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7">
+        <f>T47-V6</f>
+        <v>25</v>
+      </c>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7">
+        <f>V47-X6</f>
+        <v>25</v>
+      </c>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7">
+        <f>X47-Z6</f>
+        <v>25</v>
+      </c>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7">
+        <f>Z47-AB6</f>
+        <v>25</v>
+      </c>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7">
+        <f>AB47-AD6</f>
+        <v>25</v>
+      </c>
+      <c r="AE47" s="7"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="7">
+        <f>B3</f>
+        <v>25</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7">
+        <f>B48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>23.33</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7">
+        <f t="shared" ref="F48" si="23">D48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>21.659999999999997</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7">
+        <f t="shared" ref="H48" si="24">F48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>19.989999999999995</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7">
+        <f t="shared" ref="J48" si="25">H48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>18.319999999999993</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
+        <f t="shared" ref="L48" si="26">J48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>16.649999999999991</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7">
+        <f t="shared" ref="N48" si="27">L48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>14.979999999999992</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7">
+        <f t="shared" ref="P48" si="28">N48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>13.309999999999992</v>
+      </c>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7">
+        <f t="shared" ref="R48" si="29">P48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>11.639999999999992</v>
+      </c>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7">
+        <f t="shared" ref="T48" si="30">R48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>9.9699999999999918</v>
+      </c>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7">
+        <f t="shared" ref="V48" si="31">T48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>8.2999999999999918</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7">
+        <f t="shared" ref="X48" si="32">V48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>6.6299999999999919</v>
+      </c>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7">
+        <f t="shared" ref="Z48" si="33">X48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>4.959999999999992</v>
+      </c>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7">
+        <f t="shared" ref="AB48" si="34">Z48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>3.289999999999992</v>
+      </c>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7">
+        <f t="shared" ref="AD48" si="35">AB48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>1.6199999999999921</v>
+      </c>
+      <c r="AE48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="76">
@@ -6249,2661 +8922,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621633D-211F-40C8-9BEF-6BCC5D353A42}">
-  <dimension ref="A1:AI48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W52" sqref="A51:W52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
-        <v>43089</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <v>43096</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <v>43103</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <v>43104</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
-        <v>43105</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7">
-        <v>43106</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <v>43107</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
-        <v>43108</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7">
-        <v>43109</v>
-      </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7">
-        <v>43110</v>
-      </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7">
-        <v>43111</v>
-      </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7">
-        <v>43112</v>
-      </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7">
-        <v>43113</v>
-      </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7">
-        <v>43114</v>
-      </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7">
-        <v>43115</v>
-      </c>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7">
-        <v>43116</v>
-      </c>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7">
-        <v>43117</v>
-      </c>
-      <c r="AI5" s="7"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <f>SUM(C11:C45)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
-        <f>SUM(E11:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <f>SUM(G11:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
-        <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
-        <f>SUM(K11:K45)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8">
-        <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
-        <v>8</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8">
-        <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
-        <f>SUM(Q11:Q45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8">
-        <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8">
-        <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
-        <v>8</v>
-      </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8">
-        <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8">
-        <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8">
-        <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
-        <v>5</v>
-      </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8">
-        <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8">
-        <f t="shared" ref="AD6" si="9">SUM(AE11:AE45)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8">
-        <f t="shared" ref="AF6" si="10">SUM(AG11:AG45)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8">
-        <f t="shared" ref="AH6" si="11">SUM(AI11:AI45)</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="8"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f>B3-(SUM(B6:AI6))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" s="3">
-        <v>55</v>
-      </c>
-      <c r="M11">
-        <v>8</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="T11" s="3">
-        <v>60</v>
-      </c>
-      <c r="U11">
-        <v>4</v>
-      </c>
-      <c r="V11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Z11" s="3">
-        <v>57</v>
-      </c>
-      <c r="AA11">
-        <v>5</v>
-      </c>
-      <c r="AB11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AH11" s="3"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="T12" s="3">
-        <v>63</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AH12" s="3"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="T13" s="3">
-        <v>64</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AH13" s="3"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AH14" s="3"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AH15" s="3"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AH16" s="3"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AH17" s="3"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AH18" s="3"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AH19" s="3"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AH20" s="3"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AH21" s="3"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AH22" s="3"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AH23" s="3"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AH24" s="3"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AH25" s="3"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AH26" s="3"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AH27" s="3"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AH28" s="3"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AH29" s="3"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AH30" s="3"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AH31" s="3"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AH32" s="3"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AH33" s="3"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AH34" s="3"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AH35" s="3"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AH36" s="3"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AH37" s="3"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AH38" s="3"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AH39" s="3"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AH40" s="3"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AH41" s="3"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AH42" s="3"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AH43" s="3"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AH44" s="3"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AH45" s="3"/>
-    </row>
-    <row r="46" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="7">
-        <f>B5</f>
-        <v>43089</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7">
-        <f t="shared" ref="D46" si="12">D5</f>
-        <v>43096</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7">
-        <f t="shared" ref="F46" si="13">F5</f>
-        <v>43103</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7">
-        <f t="shared" ref="H46" si="14">H5</f>
-        <v>43104</v>
-      </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7">
-        <f t="shared" ref="J46" si="15">J5</f>
-        <v>43105</v>
-      </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7">
-        <f t="shared" ref="L46" si="16">L5</f>
-        <v>43106</v>
-      </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7">
-        <f t="shared" ref="N46" si="17">N5</f>
-        <v>43107</v>
-      </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7">
-        <f t="shared" ref="P46" si="18">P5</f>
-        <v>43108</v>
-      </c>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7">
-        <f t="shared" ref="R46" si="19">R5</f>
-        <v>43109</v>
-      </c>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7">
-        <f t="shared" ref="T46" si="20">T5</f>
-        <v>43110</v>
-      </c>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7">
-        <f t="shared" ref="V46" si="21">V5</f>
-        <v>43111</v>
-      </c>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7">
-        <f t="shared" ref="X46" si="22">X5</f>
-        <v>43112</v>
-      </c>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7">
-        <f t="shared" ref="Z46" si="23">Z5</f>
-        <v>43113</v>
-      </c>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7">
-        <f t="shared" ref="AB46" si="24">AB5</f>
-        <v>43114</v>
-      </c>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7">
-        <f>AD5</f>
-        <v>43115</v>
-      </c>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7">
-        <f t="shared" ref="AF46" si="25">AF5</f>
-        <v>43116</v>
-      </c>
-      <c r="AG46" s="7"/>
-      <c r="AH46" s="7">
-        <f>AH5</f>
-        <v>43117</v>
-      </c>
-      <c r="AI46" s="7"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="6">
-        <f>$B$3-B6</f>
-        <v>39</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6">
-        <f>B47-D6</f>
-        <v>39</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
-        <f>D47-F6</f>
-        <v>39</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6">
-        <f>F47-H6</f>
-        <v>39</v>
-      </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6">
-        <f>H47-J6</f>
-        <v>39</v>
-      </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6">
-        <f>J47-L6</f>
-        <v>31</v>
-      </c>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6">
-        <f>L47-N6</f>
-        <v>31</v>
-      </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6">
-        <f>N47-P6</f>
-        <v>31</v>
-      </c>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6">
-        <f>P47-R6</f>
-        <v>31</v>
-      </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6">
-        <f>R47-T6</f>
-        <v>23</v>
-      </c>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6">
-        <f>T47-V6</f>
-        <v>23</v>
-      </c>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6">
-        <f>V47-X6</f>
-        <v>23</v>
-      </c>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6">
-        <f>X47-Z6</f>
-        <v>18</v>
-      </c>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6">
-        <f>Z47-AB6</f>
-        <v>18</v>
-      </c>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6">
-        <f>AB47-AD6</f>
-        <v>18</v>
-      </c>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6">
-        <f>AD47-AF6</f>
-        <v>18</v>
-      </c>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6">
-        <f>AF47-AH6</f>
-        <v>18</v>
-      </c>
-      <c r="AI47" s="6"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="6">
-        <f>B3</f>
-        <v>39</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6">
-        <v>36.57</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
-        <v>34.14</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6">
-        <v>31.71</v>
-      </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6">
-        <v>29.28</v>
-      </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6">
-        <v>26.85</v>
-      </c>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6">
-        <v>24.42</v>
-      </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6">
-        <v>21.99</v>
-      </c>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6">
-        <v>19.559999999999999</v>
-      </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6">
-        <v>17.13</v>
-      </c>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6">
-        <v>14.7</v>
-      </c>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6">
-        <v>12.27</v>
-      </c>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6">
-        <v>9.84</v>
-      </c>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6">
-        <v>7.41</v>
-      </c>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="AG48" s="6"/>
-      <c r="AH48" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="AI48" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A10:A45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="AH47:AI47"/>
-    <mergeCell ref="AF48:AG48"/>
-    <mergeCell ref="AH48:AI48"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="AH46:AI46"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M17" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
-        <v>43061</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <v>43062</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <v>43063</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <v>43064</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
-        <v>43065</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7">
-        <v>43066</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <v>43067</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
-        <v>43068</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7">
-        <v>43069</v>
-      </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7">
-        <v>43070</v>
-      </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7">
-        <v>43071</v>
-      </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7">
-        <v>43072</v>
-      </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7">
-        <v>43073</v>
-      </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7">
-        <v>43074</v>
-      </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7">
-        <v>43075</v>
-      </c>
-      <c r="AE5" s="7"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <f>SUM(C11:C45)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
-        <f>SUM(E11:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <f>SUM(G11:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
-        <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
-        <f>SUM(K11:K45)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8">
-        <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8">
-        <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
-        <f>SUM(Q11:Q45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8">
-        <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8">
-        <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8">
-        <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8">
-        <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8">
-        <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8">
-        <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8">
-        <f t="shared" ref="AD6" si="9">SUM(AE11:AE45)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="8"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f>B3-(SUM(B6:AD6))</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AD12" s="3"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AD13" s="3"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AD14" s="3"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AD15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AD17" s="3"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AD18" s="3"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AD20" s="3"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AD22" s="3"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AD23" s="3"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AD24" s="3"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AD25" s="3"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AD26" s="3"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AD27" s="3"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AD28" s="3"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AD29" s="3"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AD30" s="3"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AD31" s="3"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AD32" s="3"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AD33" s="3"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AD34" s="3"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AD35" s="3"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AD36" s="3"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AD37" s="3"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AD38" s="3"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AD41" s="3"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AD42" s="3"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AD43" s="3"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AD44" s="3"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AD45" s="3"/>
-    </row>
-    <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="7">
-        <f>B5</f>
-        <v>43061</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7">
-        <f t="shared" ref="D46" si="10">D5</f>
-        <v>43062</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7">
-        <f t="shared" ref="F46" si="11">F5</f>
-        <v>43063</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7">
-        <f t="shared" ref="H46" si="12">H5</f>
-        <v>43064</v>
-      </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7">
-        <f t="shared" ref="J46" si="13">J5</f>
-        <v>43065</v>
-      </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7">
-        <f t="shared" ref="L46" si="14">L5</f>
-        <v>43066</v>
-      </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7">
-        <f t="shared" ref="N46" si="15">N5</f>
-        <v>43067</v>
-      </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7">
-        <f t="shared" ref="P46" si="16">P5</f>
-        <v>43068</v>
-      </c>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7">
-        <f t="shared" ref="R46" si="17">R5</f>
-        <v>43069</v>
-      </c>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7">
-        <f t="shared" ref="T46" si="18">T5</f>
-        <v>43070</v>
-      </c>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7">
-        <f t="shared" ref="V46" si="19">V5</f>
-        <v>43071</v>
-      </c>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7">
-        <f t="shared" ref="X46" si="20">X5</f>
-        <v>43072</v>
-      </c>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7">
-        <f t="shared" ref="Z46" si="21">Z5</f>
-        <v>43073</v>
-      </c>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7">
-        <f t="shared" ref="AB46" si="22">AB5</f>
-        <v>43074</v>
-      </c>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7">
-        <f>AD5</f>
-        <v>43075</v>
-      </c>
-      <c r="AE46" s="7"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="6">
-        <f>$B$3-B6</f>
-        <v>25</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6">
-        <f>B47-D6</f>
-        <v>25</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
-        <f>D47-F6</f>
-        <v>25</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6">
-        <f>F47-H6</f>
-        <v>25</v>
-      </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6">
-        <f>H47-J6</f>
-        <v>25</v>
-      </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6">
-        <f>J47-L6</f>
-        <v>25</v>
-      </c>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6">
-        <f>L47-N6</f>
-        <v>25</v>
-      </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6">
-        <f>N47-P6</f>
-        <v>25</v>
-      </c>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6">
-        <f>P47-R6</f>
-        <v>25</v>
-      </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6">
-        <f>R47-T6</f>
-        <v>25</v>
-      </c>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6">
-        <f>T47-V6</f>
-        <v>25</v>
-      </c>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6">
-        <f>V47-X6</f>
-        <v>25</v>
-      </c>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6">
-        <f>X47-Z6</f>
-        <v>25</v>
-      </c>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6">
-        <f>Z47-AB6</f>
-        <v>25</v>
-      </c>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6">
-        <f>AB47-AD6</f>
-        <v>25</v>
-      </c>
-      <c r="AE47" s="6"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="6">
-        <f>B3</f>
-        <v>25</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6">
-        <f>B48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>23.33</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
-        <f t="shared" ref="F48" si="23">D48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>21.659999999999997</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6">
-        <f t="shared" ref="H48" si="24">F48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>19.989999999999995</v>
-      </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6">
-        <f t="shared" ref="J48" si="25">H48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>18.319999999999993</v>
-      </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6">
-        <f t="shared" ref="L48" si="26">J48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>16.649999999999991</v>
-      </c>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6">
-        <f t="shared" ref="N48" si="27">L48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>14.979999999999992</v>
-      </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6">
-        <f t="shared" ref="P48" si="28">N48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>13.309999999999992</v>
-      </c>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6">
-        <f t="shared" ref="R48" si="29">P48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>11.639999999999992</v>
-      </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6">
-        <f t="shared" ref="T48" si="30">R48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>9.9699999999999918</v>
-      </c>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6">
-        <f t="shared" ref="V48" si="31">T48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>8.2999999999999918</v>
-      </c>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6">
-        <f t="shared" ref="X48" si="32">V48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>6.6299999999999919</v>
-      </c>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6">
-        <f t="shared" ref="Z48" si="33">X48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>4.959999999999992</v>
-      </c>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6">
-        <f t="shared" ref="AB48" si="34">Z48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>3.289999999999992</v>
-      </c>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6">
-        <f t="shared" ref="AD48" si="35">AB48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>1.6199999999999921</v>
-      </c>
-      <c r="AE48" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A10:A45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/planning/Charts/BurndownChart.xlsx
+++ b/planning/Charts/BurndownChart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="11">
   <si>
     <t>effort remaining</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>Sprint 3 Burndown Chart</t>
-  </si>
-  <si>
-    <t>#44</t>
-  </si>
-  <si>
-    <t>#65</t>
   </si>
 </sst>
 </file>
@@ -165,17 +159,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,28 +1648,28 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3730,146 +3724,146 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>43061</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
         <v>43062</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>43063</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
         <v>43064</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
         <v>43065</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
         <v>43066</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
         <v>43067</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
         <v>43068</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
         <v>43069</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7">
         <v>43070</v>
       </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6">
+      <c r="U5" s="7"/>
+      <c r="V5" s="7">
         <v>43071</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6">
+      <c r="W5" s="7"/>
+      <c r="X5" s="7">
         <v>43072</v>
       </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6">
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7">
         <v>43073</v>
       </c>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6">
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7">
         <v>43074</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6">
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7">
         <v>43075</v>
       </c>
-      <c r="AE5" s="6"/>
+      <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="8">
         <f>SUM(C11:C45)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
         <f>SUM(E11:E45)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
         <f>SUM(G11:G45)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
         <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
         <f>SUM(K11:K45)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
         <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8">
         <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
         <f>SUM(Q11:Q45)</f>
         <v>10</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
         <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
         <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5">
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
         <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5">
+      <c r="W6" s="8"/>
+      <c r="X6" s="8">
         <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5">
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8">
         <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8">
         <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
         <v>1</v>
       </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5">
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8">
         <f>SUM(AE11:AE45)</f>
         <v>21</v>
       </c>
-      <c r="AE6" s="5"/>
+      <c r="AE6" s="8"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -3881,7 +3875,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3976,7 +3970,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="3">
         <v>12</v>
       </c>
@@ -4019,7 +4013,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="3">
         <v>13</v>
       </c>
@@ -4051,7 +4045,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
@@ -4079,7 +4073,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
@@ -4107,7 +4101,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
@@ -4129,7 +4123,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
@@ -4152,7 +4146,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
@@ -4175,7 +4169,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
@@ -4193,7 +4187,7 @@
       <c r="AD18" s="3"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="5"/>
       <c r="D19" s="3"/>
       <c r="F19" s="3"/>
       <c r="H19" s="3"/>
@@ -4210,7 +4204,7 @@
       <c r="AD19" s="3"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="5"/>
       <c r="D20" s="3"/>
       <c r="F20" s="3"/>
       <c r="H20" s="3"/>
@@ -4227,7 +4221,7 @@
       <c r="AD20" s="3"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
@@ -4245,7 +4239,7 @@
       <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
@@ -4263,7 +4257,7 @@
       <c r="AD22" s="3"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
@@ -4281,7 +4275,7 @@
       <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
@@ -4299,7 +4293,7 @@
       <c r="AD24" s="3"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
@@ -4317,7 +4311,7 @@
       <c r="AD25" s="3"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
@@ -4335,7 +4329,7 @@
       <c r="AD26" s="3"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="D27" s="3"/>
       <c r="F27" s="3"/>
@@ -4353,7 +4347,7 @@
       <c r="AD27" s="3"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="D28" s="3"/>
       <c r="F28" s="3"/>
@@ -4371,7 +4365,7 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="D29" s="3"/>
       <c r="F29" s="3"/>
@@ -4389,7 +4383,7 @@
       <c r="AD29" s="3"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
@@ -4407,7 +4401,7 @@
       <c r="AD30" s="3"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
@@ -4425,7 +4419,7 @@
       <c r="AD31" s="3"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
@@ -4443,7 +4437,7 @@
       <c r="AD32" s="3"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="D33" s="3"/>
       <c r="F33" s="3"/>
@@ -4461,7 +4455,7 @@
       <c r="AD33" s="3"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="D34" s="3"/>
       <c r="F34" s="3"/>
@@ -4479,7 +4473,7 @@
       <c r="AD34" s="3"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="D35" s="3"/>
       <c r="F35" s="3"/>
@@ -4497,7 +4491,7 @@
       <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
@@ -4515,7 +4509,7 @@
       <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="D37" s="3"/>
       <c r="F37" s="3"/>
@@ -4533,7 +4527,7 @@
       <c r="AD37" s="3"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="D38" s="3"/>
       <c r="F38" s="3"/>
@@ -4551,7 +4545,7 @@
       <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="3"/>
       <c r="D39" s="3"/>
       <c r="F39" s="3"/>
@@ -4569,7 +4563,7 @@
       <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
       <c r="F40" s="3"/>
@@ -4587,7 +4581,7 @@
       <c r="AD40" s="3"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="3"/>
       <c r="D41" s="3"/>
       <c r="F41" s="3"/>
@@ -4605,7 +4599,7 @@
       <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="3"/>
       <c r="D42" s="3"/>
       <c r="F42" s="3"/>
@@ -4623,7 +4617,7 @@
       <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="3"/>
       <c r="D43" s="3"/>
       <c r="F43" s="3"/>
@@ -4641,7 +4635,7 @@
       <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="D44" s="3"/>
       <c r="F44" s="3"/>
@@ -4659,7 +4653,7 @@
       <c r="AD44" s="3"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="D45" s="3"/>
       <c r="F45" s="3"/>
@@ -4677,215 +4671,275 @@
       <c r="AD45" s="3"/>
     </row>
     <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="6">
+      <c r="B46" s="7">
         <v>43061</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7">
         <v>43062</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7">
         <v>43063</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7">
         <v>43064</v>
       </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6">
+      <c r="I46" s="7"/>
+      <c r="J46" s="7">
         <v>43065</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
         <v>43066</v>
       </c>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6">
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
         <v>43067</v>
       </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6">
+      <c r="O46" s="7"/>
+      <c r="P46" s="7">
         <v>43068</v>
       </c>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6">
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7">
         <v>43069</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6">
+      <c r="S46" s="7"/>
+      <c r="T46" s="7">
         <v>43070</v>
       </c>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6">
+      <c r="U46" s="7"/>
+      <c r="V46" s="7">
         <v>43071</v>
       </c>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6">
+      <c r="W46" s="7"/>
+      <c r="X46" s="7">
         <v>43072</v>
       </c>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6">
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7">
         <v>43073</v>
       </c>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6">
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7">
         <v>43074</v>
       </c>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6">
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7">
         <v>43075</v>
       </c>
-      <c r="AE46" s="6"/>
+      <c r="AE46" s="7"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <f>$B$3-B6</f>
         <v>33</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
         <f>B47-D6</f>
         <v>33</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
         <f>D47-F6</f>
         <v>33</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7">
+      <c r="G47" s="6"/>
+      <c r="H47" s="6">
         <f>F47-H6</f>
         <v>32</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7">
+      <c r="I47" s="6"/>
+      <c r="J47" s="6">
         <f>H47-J6</f>
         <v>32</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7">
+      <c r="K47" s="6"/>
+      <c r="L47" s="6">
         <f>J47-L6</f>
         <v>32</v>
       </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7">
+      <c r="M47" s="6"/>
+      <c r="N47" s="6">
         <f>L47-N6</f>
         <v>32</v>
       </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7">
+      <c r="O47" s="6"/>
+      <c r="P47" s="6">
         <f>N47-P6</f>
         <v>22</v>
       </c>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7">
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6">
         <f>P47-R6</f>
         <v>22</v>
       </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7">
+      <c r="S47" s="6"/>
+      <c r="T47" s="6">
         <f>R47-T6</f>
         <v>22</v>
       </c>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7">
+      <c r="U47" s="6"/>
+      <c r="V47" s="6">
         <f>T47-V6</f>
         <v>22</v>
       </c>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7">
+      <c r="W47" s="6"/>
+      <c r="X47" s="6">
         <f>V47-X6</f>
         <v>22</v>
       </c>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7">
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6">
         <f>X47-Z6</f>
         <v>22</v>
       </c>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7">
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6">
         <f>Z47-AB6</f>
         <v>21</v>
       </c>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7">
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6">
         <f>AB47-AD6</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="7"/>
+      <c r="AE47" s="6"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <f>B3</f>
         <v>35</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
         <v>32.5</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
         <v>30</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
         <v>27.5</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7">
+      <c r="I48" s="6"/>
+      <c r="J48" s="6">
         <v>25</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7">
+      <c r="K48" s="6"/>
+      <c r="L48" s="6">
         <v>22</v>
       </c>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7">
+      <c r="M48" s="6"/>
+      <c r="N48" s="6">
         <v>19.5</v>
       </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7">
+      <c r="O48" s="6"/>
+      <c r="P48" s="6">
         <v>17</v>
       </c>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7">
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6">
         <v>14.5</v>
       </c>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7">
+      <c r="S48" s="6"/>
+      <c r="T48" s="6">
         <v>12</v>
       </c>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7">
+      <c r="U48" s="6"/>
+      <c r="V48" s="6">
         <v>9.5</v>
       </c>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7">
+      <c r="W48" s="6"/>
+      <c r="X48" s="6">
         <v>7</v>
       </c>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7">
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6">
         <v>4.5</v>
       </c>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7">
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6">
         <v>2</v>
       </c>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7">
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6">
         <v>0</v>
       </c>
-      <c r="AE48" s="7"/>
+      <c r="AE48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="A10:A45"/>
     <mergeCell ref="T48:U48"/>
     <mergeCell ref="T47:U47"/>
@@ -4902,66 +4956,6 @@
     <mergeCell ref="AD48:AE48"/>
     <mergeCell ref="AB48:AC48"/>
     <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
@@ -5026,146 +5020,146 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>43075</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
         <v>43076</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>43077</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
         <v>43078</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
         <v>43079</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
         <v>43080</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
         <v>43081</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
         <v>43082</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
         <v>43083</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7">
         <v>43084</v>
       </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6">
+      <c r="U5" s="7"/>
+      <c r="V5" s="7">
         <v>43085</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6">
+      <c r="W5" s="7"/>
+      <c r="X5" s="7">
         <v>43086</v>
       </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6">
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7">
         <v>43087</v>
       </c>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6">
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7">
         <v>43088</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6">
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7">
         <v>43089</v>
       </c>
-      <c r="AE5" s="6"/>
+      <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="8">
         <f>SUM(C11:C45)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
         <f>SUM(E11:E45)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
         <f>SUM(G11:G45)</f>
         <v>2</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
         <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
         <f>SUM(K11:K45)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
         <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8">
         <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
         <f>SUM(Q11:Q45)</f>
         <v>14</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
         <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
         <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5">
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
         <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5">
+      <c r="W6" s="8"/>
+      <c r="X6" s="8">
         <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5">
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8">
         <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8">
         <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5">
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8">
         <f>SUM(AE12:AE45)</f>
         <v>12</v>
       </c>
-      <c r="AE6" s="5"/>
+      <c r="AE6" s="8"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -5177,7 +5171,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5272,7 +5266,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3">
@@ -5310,7 +5304,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
@@ -5338,7 +5332,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
@@ -5361,7 +5355,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
@@ -5384,7 +5378,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
@@ -5406,7 +5400,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
@@ -5429,7 +5423,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
@@ -5447,7 +5441,7 @@
       <c r="AD17" s="3"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
@@ -5465,7 +5459,7 @@
       <c r="AD18" s="3"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="F19" s="3"/>
@@ -5483,7 +5477,7 @@
       <c r="AD19" s="3"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="F20" s="3"/>
@@ -5501,7 +5495,7 @@
       <c r="AD20" s="3"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
@@ -5519,7 +5513,7 @@
       <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
@@ -5537,7 +5531,7 @@
       <c r="AD22" s="3"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
@@ -5555,7 +5549,7 @@
       <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
@@ -5573,7 +5567,7 @@
       <c r="AD24" s="3"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
@@ -5591,7 +5585,7 @@
       <c r="AD25" s="3"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
@@ -5609,7 +5603,7 @@
       <c r="AD26" s="3"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="D27" s="3"/>
       <c r="F27" s="3"/>
@@ -5627,7 +5621,7 @@
       <c r="AD27" s="3"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="D28" s="3"/>
       <c r="F28" s="3"/>
@@ -5645,7 +5639,7 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="D29" s="3"/>
       <c r="F29" s="3"/>
@@ -5663,7 +5657,7 @@
       <c r="AD29" s="3"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
@@ -5681,7 +5675,7 @@
       <c r="AD30" s="3"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
@@ -5699,7 +5693,7 @@
       <c r="AD31" s="3"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
@@ -5717,7 +5711,7 @@
       <c r="AD32" s="3"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="D33" s="3"/>
       <c r="F33" s="3"/>
@@ -5735,7 +5729,7 @@
       <c r="AD33" s="3"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="D34" s="3"/>
       <c r="F34" s="3"/>
@@ -5753,7 +5747,7 @@
       <c r="AD34" s="3"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="D35" s="3"/>
       <c r="F35" s="3"/>
@@ -5771,7 +5765,7 @@
       <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
@@ -5789,7 +5783,7 @@
       <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="D37" s="3"/>
       <c r="F37" s="3"/>
@@ -5807,7 +5801,7 @@
       <c r="AD37" s="3"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="D38" s="3"/>
       <c r="F38" s="3"/>
@@ -5825,7 +5819,7 @@
       <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="3"/>
       <c r="D39" s="3"/>
       <c r="F39" s="3"/>
@@ -5843,7 +5837,7 @@
       <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
       <c r="F40" s="3"/>
@@ -5861,7 +5855,7 @@
       <c r="AD40" s="3"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="3"/>
       <c r="D41" s="3"/>
       <c r="F41" s="3"/>
@@ -5879,7 +5873,7 @@
       <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="3"/>
       <c r="D42" s="3"/>
       <c r="F42" s="3"/>
@@ -5897,7 +5891,7 @@
       <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="3"/>
       <c r="D43" s="3"/>
       <c r="F43" s="3"/>
@@ -5915,7 +5909,7 @@
       <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="D44" s="3"/>
       <c r="F44" s="3"/>
@@ -5933,7 +5927,7 @@
       <c r="AD44" s="3"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="D45" s="3"/>
       <c r="F45" s="3"/>
@@ -5951,227 +5945,2952 @@
       <c r="AD45" s="3"/>
     </row>
     <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="6">
+      <c r="B46" s="7">
         <f>B5</f>
         <v>43075</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7">
         <f t="shared" ref="D46" si="9">D5</f>
         <v>43076</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7">
         <f t="shared" ref="F46" si="10">F5</f>
         <v>43077</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7">
         <f t="shared" ref="H46" si="11">H5</f>
         <v>43078</v>
       </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6">
+      <c r="I46" s="7"/>
+      <c r="J46" s="7">
         <f t="shared" ref="J46" si="12">J5</f>
         <v>43079</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
         <f t="shared" ref="L46" si="13">L5</f>
         <v>43080</v>
       </c>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6">
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
         <f t="shared" ref="N46" si="14">N5</f>
         <v>43081</v>
       </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6">
+      <c r="O46" s="7"/>
+      <c r="P46" s="7">
         <f t="shared" ref="P46" si="15">P5</f>
         <v>43082</v>
       </c>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6">
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7">
         <f t="shared" ref="R46" si="16">R5</f>
         <v>43083</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6">
+      <c r="S46" s="7"/>
+      <c r="T46" s="7">
         <f t="shared" ref="T46" si="17">T5</f>
         <v>43084</v>
       </c>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6">
+      <c r="U46" s="7"/>
+      <c r="V46" s="7">
         <f t="shared" ref="V46" si="18">V5</f>
         <v>43085</v>
       </c>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6">
+      <c r="W46" s="7"/>
+      <c r="X46" s="7">
         <f t="shared" ref="X46" si="19">X5</f>
         <v>43086</v>
       </c>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6">
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7">
         <f t="shared" ref="Z46" si="20">Z5</f>
         <v>43087</v>
       </c>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6">
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7">
         <f t="shared" ref="AB46" si="21">AB5</f>
         <v>43088</v>
       </c>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6">
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7">
         <f>AD5</f>
         <v>43089</v>
       </c>
-      <c r="AE46" s="6"/>
+      <c r="AE46" s="7"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <f>$B$3-B6</f>
         <v>38</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
         <f>B47-D6</f>
         <v>38</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
         <f>D47-F6</f>
         <v>36</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7">
+      <c r="G47" s="6"/>
+      <c r="H47" s="6">
         <f>F47-H6</f>
         <v>36</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7">
+      <c r="I47" s="6"/>
+      <c r="J47" s="6">
         <f>H47-J6</f>
         <v>36</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7">
+      <c r="K47" s="6"/>
+      <c r="L47" s="6">
         <f>J47-L6</f>
         <v>36</v>
       </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7">
+      <c r="M47" s="6"/>
+      <c r="N47" s="6">
         <f>L47-N6</f>
         <v>36</v>
       </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7">
+      <c r="O47" s="6"/>
+      <c r="P47" s="6">
         <f>N47-P6</f>
         <v>22</v>
       </c>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7">
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6">
         <f>P47-R6</f>
         <v>22</v>
       </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7">
+      <c r="S47" s="6"/>
+      <c r="T47" s="6">
         <f>R47-T6</f>
         <v>22</v>
       </c>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7">
+      <c r="U47" s="6"/>
+      <c r="V47" s="6">
         <f>T47-V6</f>
         <v>22</v>
       </c>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7">
+      <c r="W47" s="6"/>
+      <c r="X47" s="6">
         <f>V47-X6</f>
         <v>22</v>
       </c>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7">
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6">
         <f>X47-Z6</f>
         <v>21</v>
       </c>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7">
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6">
         <f>Z47-AB6</f>
         <v>21</v>
       </c>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7">
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6">
         <f>AB47-AD6</f>
         <v>9</v>
       </c>
-      <c r="AE47" s="7"/>
+      <c r="AE47" s="6"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <f>B3</f>
         <v>38</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
         <v>35.4</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
         <v>32.700000000000003</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
         <v>30</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7">
+      <c r="I48" s="6"/>
+      <c r="J48" s="6">
         <v>27.4</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7">
+      <c r="K48" s="6"/>
+      <c r="L48" s="6">
         <v>24.8</v>
       </c>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7">
+      <c r="M48" s="6"/>
+      <c r="N48" s="6">
         <v>22.1</v>
       </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7">
+      <c r="O48" s="6"/>
+      <c r="P48" s="6">
         <v>19.5</v>
       </c>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7">
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6">
         <v>16.8</v>
       </c>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7">
+      <c r="S48" s="6"/>
+      <c r="T48" s="6">
         <v>14.1</v>
       </c>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7">
+      <c r="U48" s="6"/>
+      <c r="V48" s="6">
         <v>11.5</v>
       </c>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7">
+      <c r="W48" s="6"/>
+      <c r="X48" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7">
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6">
         <v>6.2</v>
       </c>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7">
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6">
         <v>3.55</v>
       </c>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7">
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6">
         <v>0.9</v>
       </c>
-      <c r="AE48" s="7"/>
+      <c r="AE48" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A10:A45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621633D-211F-40C8-9BEF-6BCC5D353A42}">
+  <dimension ref="A1:AI48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>SUM(I2:N3)</f>
+        <v>39</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>43089</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>43096</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>43103</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <v>43104</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
+        <v>43105</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
+        <v>43106</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
+        <v>43107</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
+        <v>43108</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
+        <v>43109</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7">
+        <v>43110</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7">
+        <v>43111</v>
+      </c>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7">
+        <v>43112</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7">
+        <v>43113</v>
+      </c>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7">
+        <v>43114</v>
+      </c>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7">
+        <v>43115</v>
+      </c>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7">
+        <v>43116</v>
+      </c>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7">
+        <v>43117</v>
+      </c>
+      <c r="AI5" s="7"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <f>SUM(C11:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <f>SUM(E11:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <f>SUM(G11:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <f>SUM(K11:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
+        <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8">
+        <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
+        <f>SUM(Q11:Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
+        <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
+        <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
+        <v>4</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
+        <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8">
+        <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8">
+        <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8">
+        <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8">
+        <f>SUM(AE11:AE45)</f>
+        <v>2</v>
+      </c>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8">
+        <f t="shared" ref="AF6" si="9">SUM(AG11:AG45)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8">
+        <f>SUM(AI11:AI45)</f>
+        <v>24</v>
+      </c>
+      <c r="AI6" s="8"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>B3-(SUM(B6:AI6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="3">
+        <v>55</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="3">
+        <v>63</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="X11" s="3">
+        <v>60</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AD11" s="3">
+        <v>65</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="3"/>
+      <c r="AH11">
+        <v>61</v>
+      </c>
+      <c r="AI11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="3">
+        <v>64</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AH12">
+        <v>57</v>
+      </c>
+      <c r="AI12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AH13" s="3">
+        <v>62</v>
+      </c>
+      <c r="AI13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AH14" s="3">
+        <v>58</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AH15" s="3">
+        <v>56</v>
+      </c>
+      <c r="AI15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AH16" s="3">
+        <v>44</v>
+      </c>
+      <c r="AI16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AH17" s="3"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AH18" s="3"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AH20" s="3"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AH21" s="3"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AF22" s="3"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AF23" s="3"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AH27" s="3"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AH28" s="3"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AH30" s="3"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AH31" s="3"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AH32" s="3"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AH33" s="3"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AH34" s="3"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AH35" s="3"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AH36" s="3"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AH37" s="3"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AH38" s="3"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AH39" s="3"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AH40" s="3"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AH41" s="3"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AH42" s="3"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AH43" s="3"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AH44" s="3"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AH45" s="3"/>
+    </row>
+    <row r="46" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="7">
+        <f>B5</f>
+        <v>43089</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7">
+        <f t="shared" ref="D46" si="10">D5</f>
+        <v>43096</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7">
+        <f t="shared" ref="F46" si="11">F5</f>
+        <v>43103</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7">
+        <f t="shared" ref="H46" si="12">H5</f>
+        <v>43104</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7">
+        <f t="shared" ref="J46" si="13">J5</f>
+        <v>43105</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
+        <f t="shared" ref="L46" si="14">L5</f>
+        <v>43106</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
+        <f t="shared" ref="N46" si="15">N5</f>
+        <v>43107</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7">
+        <f t="shared" ref="P46" si="16">P5</f>
+        <v>43108</v>
+      </c>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7">
+        <f t="shared" ref="R46" si="17">R5</f>
+        <v>43109</v>
+      </c>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7">
+        <f t="shared" ref="T46" si="18">T5</f>
+        <v>43110</v>
+      </c>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7">
+        <f t="shared" ref="V46" si="19">V5</f>
+        <v>43111</v>
+      </c>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7">
+        <f t="shared" ref="X46" si="20">X5</f>
+        <v>43112</v>
+      </c>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7">
+        <f t="shared" ref="Z46" si="21">Z5</f>
+        <v>43113</v>
+      </c>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7">
+        <f t="shared" ref="AB46" si="22">AB5</f>
+        <v>43114</v>
+      </c>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7">
+        <f>AD5</f>
+        <v>43115</v>
+      </c>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7">
+        <f t="shared" ref="AF46" si="23">AF5</f>
+        <v>43116</v>
+      </c>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7">
+        <f>AH5</f>
+        <v>43117</v>
+      </c>
+      <c r="AI46" s="7"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="6">
+        <f>$B$3-B6</f>
+        <v>39</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <f>B47-D6</f>
+        <v>39</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <f>D47-F6</f>
+        <v>39</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6">
+        <f>F47-H6</f>
+        <v>39</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6">
+        <f>H47-J6</f>
+        <v>39</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6">
+        <f>J47-L6</f>
+        <v>31</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6">
+        <f>L47-N6</f>
+        <v>31</v>
+      </c>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6">
+        <f>N47-P6</f>
+        <v>31</v>
+      </c>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6">
+        <f>P47-R6</f>
+        <v>31</v>
+      </c>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6">
+        <f>R47-T6</f>
+        <v>27</v>
+      </c>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6">
+        <f>T47-V6</f>
+        <v>27</v>
+      </c>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6">
+        <f>V47-X6</f>
+        <v>26</v>
+      </c>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6">
+        <f>X47-Z6</f>
+        <v>26</v>
+      </c>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6">
+        <f>Z47-AB6</f>
+        <v>26</v>
+      </c>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6">
+        <f>AB47-AD6</f>
+        <v>24</v>
+      </c>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6">
+        <f>AD47-AF6</f>
+        <v>24</v>
+      </c>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6">
+        <f>AF47-AH6</f>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="6"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6">
+        <f>B3</f>
+        <v>39</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
+        <v>36.57</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
+        <v>34.14</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
+        <v>31.71</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6">
+        <v>29.28</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6">
+        <v>26.85</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6">
+        <v>24.42</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6">
+        <v>21.99</v>
+      </c>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6">
+        <v>17.13</v>
+      </c>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6">
+        <v>12.27</v>
+      </c>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6">
+        <v>9.84</v>
+      </c>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6">
+        <v>7.41</v>
+      </c>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AI48" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A10:A45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AH47:AI47"/>
+    <mergeCell ref="AF48:AG48"/>
+    <mergeCell ref="AH48:AI48"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="AH46:AI46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AE48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>43061</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>43062</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>43063</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <v>43064</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
+        <v>43065</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
+        <v>43066</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
+        <v>43067</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
+        <v>43068</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
+        <v>43069</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7">
+        <v>43070</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7">
+        <v>43071</v>
+      </c>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7">
+        <v>43072</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7">
+        <v>43073</v>
+      </c>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7">
+        <v>43074</v>
+      </c>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7">
+        <v>43075</v>
+      </c>
+      <c r="AE5" s="7"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <f>SUM(C11:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <f>SUM(E11:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <f>SUM(G11:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <f>SUM(K11:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
+        <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8">
+        <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
+        <f>SUM(Q11:Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
+        <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
+        <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
+        <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8">
+        <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8">
+        <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8">
+        <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8">
+        <f t="shared" ref="AD6" si="9">SUM(AE11:AE45)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>B3-(SUM(B6:AD6))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AD12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AD14" s="3"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AD15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AD18" s="3"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AD30" s="3"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AD31" s="3"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AD34" s="3"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AD35" s="3"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AD36" s="3"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AD37" s="3"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AD38" s="3"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AD41" s="3"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AD42" s="3"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AD43" s="3"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AD44" s="3"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AD45" s="3"/>
+    </row>
+    <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="7">
+        <f>B5</f>
+        <v>43061</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7">
+        <f t="shared" ref="D46" si="10">D5</f>
+        <v>43062</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7">
+        <f t="shared" ref="F46" si="11">F5</f>
+        <v>43063</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7">
+        <f t="shared" ref="H46" si="12">H5</f>
+        <v>43064</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7">
+        <f t="shared" ref="J46" si="13">J5</f>
+        <v>43065</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
+        <f t="shared" ref="L46" si="14">L5</f>
+        <v>43066</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
+        <f t="shared" ref="N46" si="15">N5</f>
+        <v>43067</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7">
+        <f t="shared" ref="P46" si="16">P5</f>
+        <v>43068</v>
+      </c>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7">
+        <f t="shared" ref="R46" si="17">R5</f>
+        <v>43069</v>
+      </c>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7">
+        <f t="shared" ref="T46" si="18">T5</f>
+        <v>43070</v>
+      </c>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7">
+        <f t="shared" ref="V46" si="19">V5</f>
+        <v>43071</v>
+      </c>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7">
+        <f t="shared" ref="X46" si="20">X5</f>
+        <v>43072</v>
+      </c>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7">
+        <f t="shared" ref="Z46" si="21">Z5</f>
+        <v>43073</v>
+      </c>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7">
+        <f t="shared" ref="AB46" si="22">AB5</f>
+        <v>43074</v>
+      </c>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7">
+        <f>AD5</f>
+        <v>43075</v>
+      </c>
+      <c r="AE46" s="7"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="6">
+        <f>$B$3-B6</f>
+        <v>25</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <f>B47-D6</f>
+        <v>25</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <f>D47-F6</f>
+        <v>25</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6">
+        <f>F47-H6</f>
+        <v>25</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6">
+        <f>H47-J6</f>
+        <v>25</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6">
+        <f>J47-L6</f>
+        <v>25</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6">
+        <f>L47-N6</f>
+        <v>25</v>
+      </c>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6">
+        <f>N47-P6</f>
+        <v>25</v>
+      </c>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6">
+        <f>P47-R6</f>
+        <v>25</v>
+      </c>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6">
+        <f>R47-T6</f>
+        <v>25</v>
+      </c>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6">
+        <f>T47-V6</f>
+        <v>25</v>
+      </c>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6">
+        <f>V47-X6</f>
+        <v>25</v>
+      </c>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6">
+        <f>X47-Z6</f>
+        <v>25</v>
+      </c>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6">
+        <f>Z47-AB6</f>
+        <v>25</v>
+      </c>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6">
+        <f>AB47-AD6</f>
+        <v>25</v>
+      </c>
+      <c r="AE47" s="6"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6">
+        <f>B3</f>
+        <v>25</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
+        <f>B48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>23.33</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
+        <f t="shared" ref="F48" si="23">D48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>21.659999999999997</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
+        <f t="shared" ref="H48" si="24">F48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>19.989999999999995</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6">
+        <f t="shared" ref="J48" si="25">H48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>18.319999999999993</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6">
+        <f t="shared" ref="L48" si="26">J48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>16.649999999999991</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6">
+        <f t="shared" ref="N48" si="27">L48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>14.979999999999992</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6">
+        <f t="shared" ref="P48" si="28">N48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>13.309999999999992</v>
+      </c>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6">
+        <f t="shared" ref="R48" si="29">P48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>11.639999999999992</v>
+      </c>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6">
+        <f t="shared" ref="T48" si="30">R48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>9.9699999999999918</v>
+      </c>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6">
+        <f t="shared" ref="V48" si="31">T48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>8.2999999999999918</v>
+      </c>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6">
+        <f t="shared" ref="X48" si="32">V48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>6.6299999999999919</v>
+      </c>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6">
+        <f t="shared" ref="Z48" si="33">X48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>4.959999999999992</v>
+      </c>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6">
+        <f t="shared" ref="AB48" si="34">Z48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>3.289999999999992</v>
+      </c>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6">
+        <f t="shared" ref="AD48" si="35">AB48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
+        <v>1.6199999999999921</v>
+      </c>
+      <c r="AE48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="76">
@@ -6255,2671 +8974,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621633D-211F-40C8-9BEF-6BCC5D353A42}">
-  <dimension ref="A1:AI48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
-        <v>43089</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <v>43096</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <v>43103</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
-        <v>43104</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6">
-        <v>43105</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6">
-        <v>43106</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6">
-        <v>43107</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6">
-        <v>43108</v>
-      </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6">
-        <v>43109</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6">
-        <v>43110</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6">
-        <v>43111</v>
-      </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6">
-        <v>43112</v>
-      </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6">
-        <v>43113</v>
-      </c>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6">
-        <v>43114</v>
-      </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6">
-        <v>43115</v>
-      </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6">
-        <v>43116</v>
-      </c>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6">
-        <v>43117</v>
-      </c>
-      <c r="AI5" s="6"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <f>SUM(C11:C45)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <f>SUM(E11:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <f>SUM(G11:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
-        <f>SUM(K11:K45)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
-        <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
-        <v>8</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5">
-        <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5">
-        <f>SUM(Q11:Q45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5">
-        <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5">
-        <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
-        <v>8</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5">
-        <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5">
-        <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5">
-        <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
-        <v>5</v>
-      </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5">
-        <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5">
-        <f t="shared" ref="AD6" si="9">SUM(AE11:AE45)</f>
-        <v>10</v>
-      </c>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5">
-        <f t="shared" ref="AF6" si="10">SUM(AG11:AG45)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5">
-        <f t="shared" ref="AH6" si="11">SUM(AI11:AI45)</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="5"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f>B3-(SUM(B6:AI6))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" s="3">
-        <v>55</v>
-      </c>
-      <c r="M11">
-        <v>8</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="T11" s="3">
-        <v>60</v>
-      </c>
-      <c r="U11">
-        <v>4</v>
-      </c>
-      <c r="V11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Z11" s="3">
-        <v>57</v>
-      </c>
-      <c r="AA11">
-        <v>5</v>
-      </c>
-      <c r="AB11" s="3"/>
-      <c r="AD11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE11">
-        <v>8</v>
-      </c>
-      <c r="AF11" s="3"/>
-      <c r="AH11" s="3"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="T12" s="3">
-        <v>63</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AD12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE12">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="3"/>
-      <c r="AH12" s="3"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="T13" s="3">
-        <v>64</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AH13" s="3"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AH14" s="3"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AH15" s="3"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AH16" s="3"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AH17" s="3"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AH18" s="3"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AH19" s="3"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AH20" s="3"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AH21" s="3"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AH22" s="3"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AH23" s="3"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AH24" s="3"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AH25" s="3"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AH26" s="3"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AH27" s="3"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AH28" s="3"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AH29" s="3"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AH30" s="3"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AH31" s="3"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AH32" s="3"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AH33" s="3"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AH34" s="3"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AH35" s="3"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AH36" s="3"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AH37" s="3"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AH38" s="3"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AH39" s="3"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AH40" s="3"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AH41" s="3"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AH42" s="3"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AH43" s="3"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AH44" s="3"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AH45" s="3"/>
-    </row>
-    <row r="46" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="6">
-        <f>B5</f>
-        <v>43089</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6">
-        <f t="shared" ref="D46" si="12">D5</f>
-        <v>43096</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6">
-        <f t="shared" ref="F46" si="13">F5</f>
-        <v>43103</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6">
-        <f t="shared" ref="H46" si="14">H5</f>
-        <v>43104</v>
-      </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6">
-        <f t="shared" ref="J46" si="15">J5</f>
-        <v>43105</v>
-      </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6">
-        <f t="shared" ref="L46" si="16">L5</f>
-        <v>43106</v>
-      </c>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6">
-        <f t="shared" ref="N46" si="17">N5</f>
-        <v>43107</v>
-      </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6">
-        <f t="shared" ref="P46" si="18">P5</f>
-        <v>43108</v>
-      </c>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6">
-        <f t="shared" ref="R46" si="19">R5</f>
-        <v>43109</v>
-      </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6">
-        <f t="shared" ref="T46" si="20">T5</f>
-        <v>43110</v>
-      </c>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6">
-        <f t="shared" ref="V46" si="21">V5</f>
-        <v>43111</v>
-      </c>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6">
-        <f t="shared" ref="X46" si="22">X5</f>
-        <v>43112</v>
-      </c>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6">
-        <f t="shared" ref="Z46" si="23">Z5</f>
-        <v>43113</v>
-      </c>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6">
-        <f t="shared" ref="AB46" si="24">AB5</f>
-        <v>43114</v>
-      </c>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6">
-        <f>AD5</f>
-        <v>43115</v>
-      </c>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="6">
-        <f t="shared" ref="AF46" si="25">AF5</f>
-        <v>43116</v>
-      </c>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6">
-        <f>AH5</f>
-        <v>43117</v>
-      </c>
-      <c r="AI46" s="6"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="7">
-        <f>$B$3-B6</f>
-        <v>39</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
-        <f>B47-D6</f>
-        <v>39</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7">
-        <f>D47-F6</f>
-        <v>39</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7">
-        <f>F47-H6</f>
-        <v>39</v>
-      </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7">
-        <f>H47-J6</f>
-        <v>39</v>
-      </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7">
-        <f>J47-L6</f>
-        <v>31</v>
-      </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7">
-        <f>L47-N6</f>
-        <v>31</v>
-      </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7">
-        <f>N47-P6</f>
-        <v>31</v>
-      </c>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7">
-        <f>P47-R6</f>
-        <v>31</v>
-      </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7">
-        <f>R47-T6</f>
-        <v>23</v>
-      </c>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7">
-        <f>T47-V6</f>
-        <v>23</v>
-      </c>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7">
-        <f>V47-X6</f>
-        <v>23</v>
-      </c>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7">
-        <f>X47-Z6</f>
-        <v>18</v>
-      </c>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7">
-        <f>Z47-AB6</f>
-        <v>18</v>
-      </c>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7">
-        <f>AB47-AD6</f>
-        <v>8</v>
-      </c>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7">
-        <f>AD47-AF6</f>
-        <v>8</v>
-      </c>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="7">
-        <f>AF47-AH6</f>
-        <v>8</v>
-      </c>
-      <c r="AI47" s="7"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="7">
-        <f>B3</f>
-        <v>39</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7">
-        <v>36.57</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7">
-        <v>34.14</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7">
-        <v>31.71</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7">
-        <v>29.28</v>
-      </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7">
-        <v>26.85</v>
-      </c>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7">
-        <v>24.42</v>
-      </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7">
-        <v>21.99</v>
-      </c>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7">
-        <v>19.559999999999999</v>
-      </c>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7">
-        <v>17.13</v>
-      </c>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7">
-        <v>14.7</v>
-      </c>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7">
-        <v>12.27</v>
-      </c>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7">
-        <v>9.84</v>
-      </c>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7">
-        <v>7.41</v>
-      </c>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="AG48" s="7"/>
-      <c r="AH48" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AI48" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="AH47:AI47"/>
-    <mergeCell ref="AF48:AG48"/>
-    <mergeCell ref="AH48:AI48"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="AH46:AI46"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A10:A45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M17" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
-        <v>43061</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <v>43062</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <v>43063</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
-        <v>43064</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6">
-        <v>43065</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6">
-        <v>43066</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6">
-        <v>43067</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6">
-        <v>43068</v>
-      </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6">
-        <v>43069</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6">
-        <v>43070</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6">
-        <v>43071</v>
-      </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6">
-        <v>43072</v>
-      </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6">
-        <v>43073</v>
-      </c>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6">
-        <v>43074</v>
-      </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6">
-        <v>43075</v>
-      </c>
-      <c r="AE5" s="6"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <f>SUM(C11:C45)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <f>SUM(E11:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <f>SUM(G11:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <f t="shared" ref="H6" si="0">SUM(I11:I45)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
-        <f>SUM(K11:K45)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
-        <f t="shared" ref="L6" si="1">SUM(M11:M45)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5">
-        <f t="shared" ref="N6" si="2">SUM(O11:O45)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5">
-        <f>SUM(Q11:Q45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5">
-        <f t="shared" ref="R6" si="3">SUM(S11:S45)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5">
-        <f t="shared" ref="T6" si="4">SUM(U11:U45)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5">
-        <f t="shared" ref="V6" si="5">SUM(W11:W45)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5">
-        <f t="shared" ref="X6" si="6">SUM(Y11:Y45)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5">
-        <f t="shared" ref="Z6" si="7">SUM(AA11:AA45)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5">
-        <f t="shared" ref="AB6" si="8">SUM(AC11:AC45)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5">
-        <f t="shared" ref="AD6" si="9">SUM(AE11:AE45)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f>B3-(SUM(B6:AD6))</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AD12" s="3"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AD13" s="3"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AD14" s="3"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AD15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AD17" s="3"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AD18" s="3"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AD20" s="3"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AD22" s="3"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AD23" s="3"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AD24" s="3"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AD25" s="3"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AD26" s="3"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AD27" s="3"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AD28" s="3"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AD29" s="3"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AD30" s="3"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AD31" s="3"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AD32" s="3"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AD33" s="3"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AD34" s="3"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AD35" s="3"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AD36" s="3"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AD37" s="3"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AD38" s="3"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AD41" s="3"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AD42" s="3"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AD43" s="3"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AD44" s="3"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AD45" s="3"/>
-    </row>
-    <row r="46" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="6">
-        <f>B5</f>
-        <v>43061</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6">
-        <f t="shared" ref="D46" si="10">D5</f>
-        <v>43062</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6">
-        <f t="shared" ref="F46" si="11">F5</f>
-        <v>43063</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6">
-        <f t="shared" ref="H46" si="12">H5</f>
-        <v>43064</v>
-      </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6">
-        <f t="shared" ref="J46" si="13">J5</f>
-        <v>43065</v>
-      </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6">
-        <f t="shared" ref="L46" si="14">L5</f>
-        <v>43066</v>
-      </c>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6">
-        <f t="shared" ref="N46" si="15">N5</f>
-        <v>43067</v>
-      </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6">
-        <f t="shared" ref="P46" si="16">P5</f>
-        <v>43068</v>
-      </c>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6">
-        <f t="shared" ref="R46" si="17">R5</f>
-        <v>43069</v>
-      </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6">
-        <f t="shared" ref="T46" si="18">T5</f>
-        <v>43070</v>
-      </c>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6">
-        <f t="shared" ref="V46" si="19">V5</f>
-        <v>43071</v>
-      </c>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6">
-        <f t="shared" ref="X46" si="20">X5</f>
-        <v>43072</v>
-      </c>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6">
-        <f t="shared" ref="Z46" si="21">Z5</f>
-        <v>43073</v>
-      </c>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6">
-        <f t="shared" ref="AB46" si="22">AB5</f>
-        <v>43074</v>
-      </c>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6">
-        <f>AD5</f>
-        <v>43075</v>
-      </c>
-      <c r="AE46" s="6"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="7">
-        <f>$B$3-B6</f>
-        <v>25</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
-        <f>B47-D6</f>
-        <v>25</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7">
-        <f>D47-F6</f>
-        <v>25</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7">
-        <f>F47-H6</f>
-        <v>25</v>
-      </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7">
-        <f>H47-J6</f>
-        <v>25</v>
-      </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7">
-        <f>J47-L6</f>
-        <v>25</v>
-      </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7">
-        <f>L47-N6</f>
-        <v>25</v>
-      </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7">
-        <f>N47-P6</f>
-        <v>25</v>
-      </c>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7">
-        <f>P47-R6</f>
-        <v>25</v>
-      </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7">
-        <f>R47-T6</f>
-        <v>25</v>
-      </c>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7">
-        <f>T47-V6</f>
-        <v>25</v>
-      </c>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7">
-        <f>V47-X6</f>
-        <v>25</v>
-      </c>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7">
-        <f>X47-Z6</f>
-        <v>25</v>
-      </c>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7">
-        <f>Z47-AB6</f>
-        <v>25</v>
-      </c>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7">
-        <f>AB47-AD6</f>
-        <v>25</v>
-      </c>
-      <c r="AE47" s="7"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="7">
-        <f>B3</f>
-        <v>25</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7">
-        <f>B48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>23.33</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7">
-        <f t="shared" ref="F48" si="23">D48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>21.659999999999997</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7">
-        <f t="shared" ref="H48" si="24">F48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>19.989999999999995</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7">
-        <f t="shared" ref="J48" si="25">H48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>18.319999999999993</v>
-      </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7">
-        <f t="shared" ref="L48" si="26">J48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>16.649999999999991</v>
-      </c>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7">
-        <f t="shared" ref="N48" si="27">L48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>14.979999999999992</v>
-      </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7">
-        <f t="shared" ref="P48" si="28">N48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>13.309999999999992</v>
-      </c>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7">
-        <f t="shared" ref="R48" si="29">P48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>11.639999999999992</v>
-      </c>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7">
-        <f t="shared" ref="T48" si="30">R48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>9.9699999999999918</v>
-      </c>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7">
-        <f t="shared" ref="V48" si="31">T48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>8.2999999999999918</v>
-      </c>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7">
-        <f t="shared" ref="X48" si="32">V48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>6.6299999999999919</v>
-      </c>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7">
-        <f t="shared" ref="Z48" si="33">X48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>4.959999999999992</v>
-      </c>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7">
-        <f t="shared" ref="AB48" si="34">Z48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>3.289999999999992</v>
-      </c>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7">
-        <f t="shared" ref="AD48" si="35">AB48-(ROUND(($B$3/COUNTA($B$46:$AD$46)*1),2))</f>
-        <v>1.6199999999999921</v>
-      </c>
-      <c r="AE48" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A10:A45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>